--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1685022.519911473</v>
+        <v>1648112.965636187</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7667275.20047026</v>
+        <v>7667275.200470263</v>
       </c>
     </row>
     <row r="9">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,28 +1296,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>197.0385988734746</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S11" t="n">
-        <v>61.25917604050684</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U11" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>81.19945268078497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5721253485937</v>
+        <v>45.06307904106302</v>
       </c>
       <c r="H12" t="n">
         <v>104.7854232900641</v>
       </c>
       <c r="I12" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>31.80152303451761</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>204.4328963572062</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>258.1393450623677</v>
       </c>
       <c r="D14" t="n">
-        <v>156.9998477691666</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H14" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>154.8937192292229</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>176.1667213818563</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U14" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>45.06307904106299</v>
+        <v>136.5721253485937</v>
       </c>
       <c r="H15" t="n">
         <v>104.7854232900641</v>
       </c>
       <c r="I15" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.26387569774038</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S15" t="n">
         <v>157.3549064770709</v>
@@ -1742,7 +1742,7 @@
         <v>197.055478354326</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8906326194869</v>
+        <v>134.381586311956</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11.97126005970573</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>127.7047658192821</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>323.5246907854595</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>413.8610107700165</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.3052502880963</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U17" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>95.68457931445165</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>55.936019257108</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>104.7854232900641</v>
       </c>
       <c r="I18" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.26387569774038</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>157.3549064770709</v>
       </c>
       <c r="T18" t="n">
-        <v>197.055478354326</v>
+        <v>157.8103077445355</v>
       </c>
       <c r="U18" t="n">
         <v>225.8906326194869</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>102.2935062326509</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3442703738144</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.0089845466101</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>10.54328593873504</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>144.5699337599389</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T20" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>282.9054280802134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H21" t="n">
-        <v>13.27637698253305</v>
+        <v>76.11412498858314</v>
       </c>
       <c r="I21" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.26387569774038</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S21" t="n">
         <v>157.3549064770709</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5696635964232</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.0089845466101</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2150037585237</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>8.054876446075967</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T22" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>76.40532220535169</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>231.0671891830274</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H24" t="n">
-        <v>76.11412498858314</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>62.83774800605011</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>160.1859368533889</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>23.5917249675002</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.00898454661009</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>95.16850419570881</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>239.2604729016868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>58.55718980904817</v>
       </c>
       <c r="I26" t="n">
-        <v>154.8937192292228</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.30525028809629</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.7846907373749</v>
       </c>
       <c r="U26" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>45.06307904106257</v>
+        <v>136.5721253485937</v>
       </c>
       <c r="H27" t="n">
-        <v>104.7854232900641</v>
+        <v>76.11412498858314</v>
       </c>
       <c r="I27" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.4655218036561</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>26.07202718357203</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>50.6376532441048</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H29" t="n">
         <v>324.7097180873218</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.30525028809629</v>
       </c>
       <c r="S29" t="n">
         <v>176.1667213818563</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U29" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.7713963067909</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>53.56016608585321</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.5721253485937</v>
@@ -2891,7 +2891,7 @@
         <v>104.7854232900641</v>
       </c>
       <c r="I30" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>177.1016869019969</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>53.02729219532619</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.1823783120738</v>
+        <v>100.7495008075281</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.30525028809629</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>302.8311354655406</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>220.9386656055823</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>116.3979140919033</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5721253485937</v>
       </c>
       <c r="H33" t="n">
-        <v>104.7854232900641</v>
+        <v>76.1141249885836</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.00898454661009</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>233.7645318351134</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>164.289482605602</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.7097180873218</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U35" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>163.9282185026237</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.801120370974652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5721253485937</v>
+        <v>45.06307904106299</v>
       </c>
       <c r="H36" t="n">
-        <v>13.27637698253348</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I36" t="n">
         <v>62.83774800605011</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.36414579476505</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.00898454661009</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.6631558262223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>278.5021958846615</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.30525028809627</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>176.1667213818563</v>
@@ -3559,7 +3559,7 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>119.7414476833698</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H39" t="n">
-        <v>13.27637698253392</v>
+        <v>76.11412498858402</v>
       </c>
       <c r="I39" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3705,28 +3705,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>32.00898454661009</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>108.1319353983488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>185.4010790171021</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>105.48469462474</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I41" t="n">
         <v>154.8937192292228</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>59.30525028809627</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>176.1667213818563</v>
@@ -3796,16 +3796,16 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U41" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>184.0984973037521</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H42" t="n">
-        <v>76.11412498858402</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>52.26387569774037</v>
       </c>
       <c r="S42" t="n">
-        <v>157.3549064770709</v>
+        <v>65.84586016954044</v>
       </c>
       <c r="T42" t="n">
         <v>197.055478354326</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3442703738144</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.668502616617209</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.00898454661009</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>227.1688686206857</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>244.6273314296362</v>
       </c>
       <c r="C44" t="n">
-        <v>15.71359742431147</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>324.7097180873217</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U44" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>53.56016608585361</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.5721253485937</v>
       </c>
       <c r="H45" t="n">
-        <v>104.7854232900641</v>
+        <v>76.11412498858402</v>
       </c>
       <c r="I45" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T46" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>195.4038667881524</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>132.7886224844688</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C8" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4810,13 +4810,13 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M8" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="M8" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4825,31 +4825,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.304216312122629</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304216312122629</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D9" t="n">
-        <v>1.304216312122629</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
-        <v>1.304216312122629</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4886,31 +4886,31 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
         <v>20.55868221764227</v>
@@ -4922,13 +4922,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X9" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.304216312122629</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="J10" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4980,34 +4980,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X10" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>832.1150561523762</v>
+        <v>1897.738814879913</v>
       </c>
       <c r="C11" t="n">
-        <v>463.1525392119645</v>
+        <v>1698.709927128928</v>
       </c>
       <c r="D11" t="n">
-        <v>463.1525392119645</v>
+        <v>1340.444228522178</v>
       </c>
       <c r="E11" t="n">
-        <v>463.1525392119645</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="F11" t="n">
-        <v>52.16663442235694</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="G11" t="n">
-        <v>52.16663442235694</v>
+        <v>536.6145509037151</v>
       </c>
       <c r="H11" t="n">
-        <v>52.16663442235694</v>
+        <v>208.6249366740972</v>
       </c>
       <c r="I11" t="n">
         <v>52.16663442235694</v>
       </c>
       <c r="J11" t="n">
-        <v>161.4779457414611</v>
+        <v>161.4779457414614</v>
       </c>
       <c r="K11" t="n">
         <v>446.0520696222143</v>
       </c>
       <c r="L11" t="n">
-        <v>851.3680616038664</v>
+        <v>851.368061603866</v>
       </c>
       <c r="M11" t="n">
         <v>1318.966744187231</v>
@@ -5065,28 +5065,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R11" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.453765521375</v>
+        <v>2370.481244683551</v>
       </c>
       <c r="T11" t="n">
-        <v>2546.453765521375</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="U11" t="n">
-        <v>2292.685770805994</v>
+        <v>1897.738814879913</v>
       </c>
       <c r="V11" t="n">
-        <v>1961.622883462424</v>
+        <v>1897.738814879913</v>
       </c>
       <c r="W11" t="n">
-        <v>1608.85422819231</v>
+        <v>1897.738814879913</v>
       </c>
       <c r="X11" t="n">
-        <v>1608.85422819231</v>
+        <v>1897.738814879913</v>
       </c>
       <c r="Y11" t="n">
-        <v>1218.714896216498</v>
+        <v>1897.738814879913</v>
       </c>
     </row>
     <row r="12">
@@ -5099,16 +5099,16 @@
         <v>896.1606826434847</v>
       </c>
       <c r="C12" t="n">
-        <v>814.1410334709747</v>
+        <v>721.7076533623577</v>
       </c>
       <c r="D12" t="n">
-        <v>665.2066238097234</v>
+        <v>572.7732437011065</v>
       </c>
       <c r="E12" t="n">
-        <v>505.9691688042678</v>
+        <v>413.535788695651</v>
       </c>
       <c r="F12" t="n">
-        <v>359.4346108311528</v>
+        <v>267.001230722536</v>
       </c>
       <c r="G12" t="n">
         <v>221.4829690648966</v>
@@ -5120,13 +5120,13 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J12" t="n">
-        <v>52.16663442235694</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K12" t="n">
-        <v>300.8414274379375</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L12" t="n">
-        <v>696.6197713097383</v>
+        <v>625.5556454450449</v>
       </c>
       <c r="M12" t="n">
         <v>1139.389526725265</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="C13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="D13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="E13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="F13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="G13" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="H13" t="n">
         <v>52.16663442235694</v>
@@ -5208,10 +5208,10 @@
         <v>227.004938550107</v>
       </c>
       <c r="M13" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N13" t="n">
-        <v>508.2191256444388</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O13" t="n">
         <v>623.0536839185938</v>
@@ -5223,28 +5223,28 @@
         <v>697.7938045762164</v>
       </c>
       <c r="R13" t="n">
-        <v>548.0816795676067</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S13" t="n">
-        <v>548.0816795676067</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T13" t="n">
-        <v>548.0816795676067</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="U13" t="n">
-        <v>548.0816795676067</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="V13" t="n">
-        <v>341.5838044593175</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="W13" t="n">
-        <v>52.16663442235694</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="X13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.16663442235694</v>
+        <v>242.3473058882256</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1106.186160510663</v>
+        <v>1116.743125235131</v>
       </c>
       <c r="C14" t="n">
-        <v>1106.186160510663</v>
+        <v>855.9963120408199</v>
       </c>
       <c r="D14" t="n">
-        <v>947.6004556933228</v>
+        <v>855.9963120408199</v>
       </c>
       <c r="E14" t="n">
-        <v>947.6004556933228</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="F14" t="n">
-        <v>536.6145509037152</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G14" t="n">
-        <v>536.6145509037152</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="H14" t="n">
-        <v>208.6249366740972</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I14" t="n">
         <v>52.16663442235694</v>
       </c>
       <c r="J14" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414613</v>
       </c>
       <c r="K14" t="n">
-        <v>446.0520696222142</v>
+        <v>446.0520696222143</v>
       </c>
       <c r="L14" t="n">
-        <v>851.3680616038661</v>
+        <v>851.3680616038662</v>
       </c>
       <c r="M14" t="n">
-        <v>1318.96674418723</v>
+        <v>1318.966744187231</v>
       </c>
       <c r="N14" t="n">
-        <v>1779.499664768352</v>
+        <v>1779.499664768353</v>
       </c>
       <c r="O14" t="n">
-        <v>2169.180204666328</v>
+        <v>2169.180204666329</v>
       </c>
       <c r="P14" t="n">
         <v>2464.089146983794</v>
@@ -5308,22 +5308,22 @@
         <v>2430.38553790385</v>
       </c>
       <c r="T14" t="n">
-        <v>2430.38553790385</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="U14" t="n">
-        <v>2176.617543188469</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.554655844899</v>
+        <v>1880.348215472022</v>
       </c>
       <c r="W14" t="n">
-        <v>1492.786000574785</v>
+        <v>1880.348215472022</v>
       </c>
       <c r="X14" t="n">
-        <v>1492.786000574785</v>
+        <v>1506.882457210942</v>
       </c>
       <c r="Y14" t="n">
-        <v>1492.786000574785</v>
+        <v>1116.743125235131</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>896.1606826434847</v>
+        <v>988.5940627521016</v>
       </c>
       <c r="C15" t="n">
-        <v>721.7076533623577</v>
+        <v>814.1410334709747</v>
       </c>
       <c r="D15" t="n">
-        <v>572.7732437011065</v>
+        <v>665.2066238097234</v>
       </c>
       <c r="E15" t="n">
-        <v>413.535788695651</v>
+        <v>505.9691688042678</v>
       </c>
       <c r="F15" t="n">
-        <v>267.001230722536</v>
+        <v>359.4346108311528</v>
       </c>
       <c r="G15" t="n">
         <v>221.4829690648966</v>
@@ -5357,13 +5357,13 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J15" t="n">
-        <v>123.5783229035612</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K15" t="n">
-        <v>372.2531159191418</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L15" t="n">
-        <v>768.0314597909426</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M15" t="n">
         <v>1281.865341071162</v>
@@ -5372,10 +5372,10 @@
         <v>1825.005889615894</v>
       </c>
       <c r="O15" t="n">
-        <v>2255.457702164117</v>
+        <v>2112.98188781822</v>
       </c>
       <c r="P15" t="n">
-        <v>2583.930163358809</v>
+        <v>2441.454349012912</v>
       </c>
       <c r="Q15" t="n">
         <v>2608.331721117847</v>
@@ -5390,19 +5390,19 @@
         <v>2197.549639775284</v>
       </c>
       <c r="U15" t="n">
-        <v>1969.377283593984</v>
+        <v>2061.810663702601</v>
       </c>
       <c r="V15" t="n">
-        <v>1734.225175362241</v>
+        <v>1826.658555470858</v>
       </c>
       <c r="W15" t="n">
-        <v>1479.98781863404</v>
+        <v>1572.421198742656</v>
       </c>
       <c r="X15" t="n">
-        <v>1272.136318428507</v>
+        <v>1364.569698537123</v>
       </c>
       <c r="Y15" t="n">
-        <v>1064.376019663553</v>
+        <v>1156.80939977217</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.16663442235694</v>
+        <v>222.3167372267995</v>
       </c>
       <c r="C16" t="n">
-        <v>52.16663442235694</v>
+        <v>222.3167372267995</v>
       </c>
       <c r="D16" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="E16" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="F16" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="G16" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="H16" t="n">
         <v>52.16663442235694</v>
@@ -5442,46 +5442,46 @@
         <v>104.5043049285281</v>
       </c>
       <c r="L16" t="n">
-        <v>227.0049385501069</v>
+        <v>227.004938550107</v>
       </c>
       <c r="M16" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N16" t="n">
-        <v>508.2191256444387</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O16" t="n">
-        <v>623.0536839185937</v>
+        <v>623.0536839185938</v>
       </c>
       <c r="P16" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="Q16" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R16" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S16" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T16" t="n">
-        <v>470.3368567862427</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="U16" t="n">
-        <v>181.1613473711267</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="V16" t="n">
-        <v>181.1613473711267</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="W16" t="n">
-        <v>52.16663442235694</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="X16" t="n">
-        <v>52.16663442235694</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.16663442235694</v>
+        <v>222.3167372267995</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1551.751445936241</v>
+        <v>1156.463372278944</v>
       </c>
       <c r="C17" t="n">
-        <v>1182.78892899583</v>
+        <v>1156.463372278944</v>
       </c>
       <c r="D17" t="n">
-        <v>855.9963120408199</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="E17" t="n">
-        <v>470.2080594425756</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="F17" t="n">
-        <v>470.2080594425756</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="G17" t="n">
-        <v>52.16663442235694</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="H17" t="n">
         <v>52.16663442235694</v>
@@ -5515,13 +5515,13 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J17" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414613</v>
       </c>
       <c r="K17" t="n">
         <v>446.0520696222143</v>
       </c>
       <c r="L17" t="n">
-        <v>851.3680616038664</v>
+        <v>851.3680616038662</v>
       </c>
       <c r="M17" t="n">
         <v>1318.966744187231</v>
@@ -5539,28 +5539,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R17" t="n">
-        <v>2548.427427897548</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S17" t="n">
-        <v>2548.427427897548</v>
+        <v>2430.38553790385</v>
       </c>
       <c r="T17" t="n">
-        <v>2548.427427897548</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="U17" t="n">
-        <v>2294.659433182167</v>
+        <v>1957.643108100212</v>
       </c>
       <c r="V17" t="n">
-        <v>2294.659433182167</v>
+        <v>1626.580220756642</v>
       </c>
       <c r="W17" t="n">
-        <v>1941.890777912053</v>
+        <v>1626.580220756642</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.890777912053</v>
+        <v>1253.114462495562</v>
       </c>
       <c r="Y17" t="n">
-        <v>1551.751445936241</v>
+        <v>1156.463372278944</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>896.1606826434847</v>
+        <v>988.5940627521016</v>
       </c>
       <c r="C18" t="n">
-        <v>721.7076533623577</v>
+        <v>814.1410334709747</v>
       </c>
       <c r="D18" t="n">
         <v>665.2066238097234</v>
@@ -5594,52 +5594,52 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J18" t="n">
-        <v>123.5783229035612</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K18" t="n">
-        <v>372.2531159191418</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L18" t="n">
-        <v>768.0314597909426</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M18" t="n">
         <v>1281.865341071162</v>
       </c>
       <c r="N18" t="n">
-        <v>1682.530075269997</v>
+        <v>1825.005889615894</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.98188781822</v>
+        <v>2255.457702164118</v>
       </c>
       <c r="P18" t="n">
-        <v>2441.454349012912</v>
+        <v>2583.930163358809</v>
       </c>
       <c r="Q18" t="n">
         <v>2608.331721117847</v>
       </c>
       <c r="R18" t="n">
-        <v>2555.539927483765</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S18" t="n">
-        <v>2396.595577506926</v>
+        <v>2449.387371141007</v>
       </c>
       <c r="T18" t="n">
-        <v>2197.549639775284</v>
+        <v>2289.983019883901</v>
       </c>
       <c r="U18" t="n">
-        <v>1969.377283593984</v>
+        <v>2061.810663702601</v>
       </c>
       <c r="V18" t="n">
-        <v>1734.225175362241</v>
+        <v>1826.658555470858</v>
       </c>
       <c r="W18" t="n">
-        <v>1479.98781863404</v>
+        <v>1572.421198742656</v>
       </c>
       <c r="X18" t="n">
-        <v>1272.136318428507</v>
+        <v>1364.569698537123</v>
       </c>
       <c r="Y18" t="n">
-        <v>1064.376019663553</v>
+        <v>1156.80939977217</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.4934083947316</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="C19" t="n">
-        <v>52.16663442235694</v>
+        <v>518.2078378718095</v>
       </c>
       <c r="D19" t="n">
-        <v>52.16663442235694</v>
+        <v>368.0911984594737</v>
       </c>
       <c r="E19" t="n">
-        <v>52.16663442235694</v>
+        <v>368.0911984594737</v>
       </c>
       <c r="F19" t="n">
-        <v>52.16663442235694</v>
+        <v>221.2012509615634</v>
       </c>
       <c r="G19" t="n">
         <v>52.16663442235694</v>
@@ -5679,46 +5679,46 @@
         <v>104.5043049285281</v>
       </c>
       <c r="L19" t="n">
-        <v>227.0049385501069</v>
+        <v>227.004938550107</v>
       </c>
       <c r="M19" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N19" t="n">
-        <v>508.2191256444387</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O19" t="n">
-        <v>623.0536839185937</v>
+        <v>623.0536839185938</v>
       </c>
       <c r="P19" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="Q19" t="n">
-        <v>665.4614969533777</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R19" t="n">
-        <v>665.4614969533777</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="S19" t="n">
-        <v>665.4614969533777</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="T19" t="n">
-        <v>665.4614969533777</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="U19" t="n">
-        <v>376.2859875382617</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="V19" t="n">
-        <v>376.2859875382617</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="W19" t="n">
-        <v>376.2859875382617</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="X19" t="n">
-        <v>376.2859875382617</v>
+        <v>687.1440207997164</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.4934083947316</v>
+        <v>687.1440207997164</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>779.3948499695191</v>
+        <v>1413.012452951578</v>
       </c>
       <c r="C20" t="n">
-        <v>410.4323330291074</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="D20" t="n">
-        <v>52.16663442235693</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="E20" t="n">
-        <v>52.16663442235693</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F20" t="n">
-        <v>52.16663442235693</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G20" t="n">
         <v>52.16663442235693</v>
@@ -5752,16 +5752,16 @@
         <v>52.16663442235693</v>
       </c>
       <c r="J20" t="n">
-        <v>161.4779457414613</v>
+        <v>161.4779457414614</v>
       </c>
       <c r="K20" t="n">
-        <v>446.0520696222141</v>
+        <v>446.0520696222143</v>
       </c>
       <c r="L20" t="n">
-        <v>851.368061603866</v>
+        <v>851.3680616038662</v>
       </c>
       <c r="M20" t="n">
-        <v>1318.96674418723</v>
+        <v>1318.966744187231</v>
       </c>
       <c r="N20" t="n">
         <v>1779.499664768352</v>
@@ -5779,25 +5779,25 @@
         <v>2608.331721117846</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.331721117846</v>
+        <v>2430.38553790385</v>
       </c>
       <c r="T20" t="n">
-        <v>2389.357286029589</v>
+        <v>2430.38553790385</v>
       </c>
       <c r="U20" t="n">
-        <v>2135.589291314208</v>
+        <v>2176.617543188469</v>
       </c>
       <c r="V20" t="n">
-        <v>1804.526403970637</v>
+        <v>2176.617543188469</v>
       </c>
       <c r="W20" t="n">
-        <v>1451.757748700523</v>
+        <v>2176.617543188469</v>
       </c>
       <c r="X20" t="n">
-        <v>1451.757748700523</v>
+        <v>1803.15178492739</v>
       </c>
       <c r="Y20" t="n">
-        <v>1165.994690033641</v>
+        <v>1413.012452951578</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>129.0495889562793</v>
       </c>
       <c r="H21" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235693</v>
       </c>
       <c r="I21" t="n">
         <v>52.16663442235693</v>
       </c>
       <c r="J21" t="n">
-        <v>52.16663442235693</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K21" t="n">
-        <v>229.777301573244</v>
+        <v>372.2531159191418</v>
       </c>
       <c r="L21" t="n">
-        <v>625.5556454450447</v>
+        <v>768.0314597909426</v>
       </c>
       <c r="M21" t="n">
-        <v>1139.389526725264</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N21" t="n">
         <v>1682.530075269996</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.16663442235693</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="C22" t="n">
-        <v>52.16663442235693</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="D22" t="n">
-        <v>52.16663442235693</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="E22" t="n">
-        <v>52.16663442235693</v>
+        <v>334.9855350479675</v>
       </c>
       <c r="F22" t="n">
-        <v>52.16663442235693</v>
+        <v>188.0955875500571</v>
       </c>
       <c r="G22" t="n">
-        <v>52.16663442235693</v>
+        <v>188.0955875500571</v>
       </c>
       <c r="H22" t="n">
         <v>52.16663442235693</v>
@@ -5916,46 +5916,46 @@
         <v>104.5043049285281</v>
       </c>
       <c r="L22" t="n">
-        <v>227.0049385501069</v>
+        <v>227.004938550107</v>
       </c>
       <c r="M22" t="n">
         <v>366.5538039423346</v>
       </c>
       <c r="N22" t="n">
-        <v>508.2191256444387</v>
+        <v>508.2191256444388</v>
       </c>
       <c r="O22" t="n">
-        <v>623.0536839185937</v>
+        <v>623.0536839185938</v>
       </c>
       <c r="P22" t="n">
-        <v>697.7938045762162</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="Q22" t="n">
-        <v>665.4614969533777</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R22" t="n">
-        <v>515.749371944768</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S22" t="n">
-        <v>507.6131331103478</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="T22" t="n">
-        <v>280.1561853203743</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="U22" t="n">
-        <v>280.1561853203743</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="V22" t="n">
-        <v>280.1561853203743</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="W22" t="n">
-        <v>280.1561853203743</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="X22" t="n">
-        <v>52.16663442235693</v>
+        <v>482.8986286303606</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.16663442235693</v>
+        <v>482.8986286303606</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1493.172716797381</v>
+        <v>1176.930406039827</v>
       </c>
       <c r="C23" t="n">
-        <v>1124.21019985697</v>
+        <v>1176.930406039827</v>
       </c>
       <c r="D23" t="n">
-        <v>765.9445012502192</v>
+        <v>1176.930406039827</v>
       </c>
       <c r="E23" t="n">
-        <v>380.1562486519749</v>
+        <v>791.1421534415824</v>
       </c>
       <c r="F23" t="n">
         <v>380.1562486519749</v>
@@ -5983,37 +5983,37 @@
         <v>380.1562486519749</v>
       </c>
       <c r="H23" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I23" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J23" t="n">
-        <v>161.4779457414616</v>
+        <v>161.4779457414614</v>
       </c>
       <c r="K23" t="n">
-        <v>446.0520696222145</v>
+        <v>446.0520696222143</v>
       </c>
       <c r="L23" t="n">
-        <v>851.3680616038664</v>
+        <v>851.3680616038662</v>
       </c>
       <c r="M23" t="n">
         <v>1318.966744187231</v>
       </c>
       <c r="N23" t="n">
-        <v>1779.499664768352</v>
+        <v>1779.499664768353</v>
       </c>
       <c r="O23" t="n">
-        <v>2169.180204666328</v>
+        <v>2169.180204666329</v>
       </c>
       <c r="P23" t="n">
         <v>2464.089146983794</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R23" t="n">
-        <v>2548.427427897547</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S23" t="n">
         <v>2370.481244683551</v>
@@ -6022,19 +6022,19 @@
         <v>2370.481244683551</v>
       </c>
       <c r="U23" t="n">
-        <v>2116.71324996817</v>
+        <v>2370.481244683551</v>
       </c>
       <c r="V23" t="n">
-        <v>2116.71324996817</v>
+        <v>2370.481244683551</v>
       </c>
       <c r="W23" t="n">
-        <v>2116.71324996817</v>
+        <v>2017.712589413437</v>
       </c>
       <c r="X23" t="n">
-        <v>1883.312048773193</v>
+        <v>1644.246831152357</v>
       </c>
       <c r="Y23" t="n">
-        <v>1493.172716797381</v>
+        <v>1254.107499176546</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>896.1606826434843</v>
+        <v>988.5940627521016</v>
       </c>
       <c r="C24" t="n">
-        <v>721.7076533623573</v>
+        <v>814.1410334709747</v>
       </c>
       <c r="D24" t="n">
-        <v>572.773243701106</v>
+        <v>665.2066238097234</v>
       </c>
       <c r="E24" t="n">
-        <v>413.5357886956505</v>
+        <v>505.9691688042678</v>
       </c>
       <c r="F24" t="n">
-        <v>267.0012307225355</v>
+        <v>359.4346108311528</v>
       </c>
       <c r="G24" t="n">
-        <v>129.0495889562793</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H24" t="n">
-        <v>52.16663442235693</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I24" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J24" t="n">
         <v>123.5783229035613</v>
@@ -6080,16 +6080,16 @@
         <v>1281.865341071162</v>
       </c>
       <c r="N24" t="n">
-        <v>1682.530075269996</v>
+        <v>1682.530075269997</v>
       </c>
       <c r="O24" t="n">
         <v>2112.98188781822</v>
       </c>
       <c r="P24" t="n">
-        <v>2441.454349012911</v>
+        <v>2441.454349012912</v>
       </c>
       <c r="Q24" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R24" t="n">
         <v>2555.539927483765</v>
@@ -6098,22 +6098,22 @@
         <v>2396.595577506926</v>
       </c>
       <c r="T24" t="n">
-        <v>2197.549639775283</v>
+        <v>2197.549639775284</v>
       </c>
       <c r="U24" t="n">
-        <v>1969.377283593983</v>
+        <v>1969.377283593984</v>
       </c>
       <c r="V24" t="n">
         <v>1734.225175362241</v>
       </c>
       <c r="W24" t="n">
-        <v>1479.987818634039</v>
+        <v>1572.421198742656</v>
       </c>
       <c r="X24" t="n">
-        <v>1272.136318428506</v>
+        <v>1364.569698537123</v>
       </c>
       <c r="Y24" t="n">
-        <v>1064.376019663552</v>
+        <v>1156.80939977217</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.16663442235693</v>
+        <v>673.9637793565192</v>
       </c>
       <c r="C25" t="n">
-        <v>52.16663442235693</v>
+        <v>505.0275964286123</v>
       </c>
       <c r="D25" t="n">
-        <v>52.16663442235693</v>
+        <v>505.0275964286123</v>
       </c>
       <c r="E25" t="n">
-        <v>52.16663442235693</v>
+        <v>357.1145028462192</v>
       </c>
       <c r="F25" t="n">
-        <v>52.16663442235693</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="G25" t="n">
-        <v>52.16663442235693</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="H25" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I25" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J25" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="K25" t="n">
         <v>104.5043049285281</v>
@@ -6168,31 +6168,31 @@
         <v>697.7938045762164</v>
       </c>
       <c r="Q25" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R25" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S25" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T25" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="U25" t="n">
-        <v>376.285987538262</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="V25" t="n">
-        <v>376.285987538262</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="W25" t="n">
-        <v>280.1561853203743</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="X25" t="n">
-        <v>52.16663442235693</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.16663442235693</v>
+        <v>697.7938045762164</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>450.3021820293363</v>
+        <v>908.0894683850049</v>
       </c>
       <c r="C26" t="n">
-        <v>450.3021820293363</v>
+        <v>908.0894683850049</v>
       </c>
       <c r="D26" t="n">
-        <v>450.3021820293363</v>
+        <v>908.0894683850049</v>
       </c>
       <c r="E26" t="n">
-        <v>450.3021820293363</v>
+        <v>522.3012157867606</v>
       </c>
       <c r="F26" t="n">
-        <v>208.6249366740972</v>
+        <v>111.3153109971531</v>
       </c>
       <c r="G26" t="n">
-        <v>208.6249366740972</v>
+        <v>111.3153109971531</v>
       </c>
       <c r="H26" t="n">
-        <v>208.6249366740972</v>
+        <v>52.16663442235693</v>
       </c>
       <c r="I26" t="n">
         <v>52.16663442235693</v>
@@ -6250,28 +6250,28 @@
         <v>2608.331721117846</v>
       </c>
       <c r="R26" t="n">
-        <v>2548.427427897547</v>
+        <v>2608.331721117846</v>
       </c>
       <c r="S26" t="n">
-        <v>2370.481244683551</v>
+        <v>2608.331721117846</v>
       </c>
       <c r="T26" t="n">
-        <v>2151.506809595293</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="U26" t="n">
-        <v>1897.738814879913</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="V26" t="n">
-        <v>1566.675927536342</v>
+        <v>2058.294398686018</v>
       </c>
       <c r="W26" t="n">
-        <v>1213.907272266228</v>
+        <v>2058.294398686018</v>
       </c>
       <c r="X26" t="n">
-        <v>840.4415140051481</v>
+        <v>1684.828640424938</v>
       </c>
       <c r="Y26" t="n">
-        <v>450.3021820293363</v>
+        <v>1294.689308449127</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>267.0012307225355</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4829690648966</v>
+        <v>129.0495889562793</v>
       </c>
       <c r="H27" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235693</v>
       </c>
       <c r="I27" t="n">
         <v>52.16663442235693</v>
       </c>
       <c r="J27" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235693</v>
       </c>
       <c r="K27" t="n">
-        <v>372.2531159191418</v>
+        <v>300.8414274379375</v>
       </c>
       <c r="L27" t="n">
-        <v>768.0314597909426</v>
+        <v>696.6197713097383</v>
       </c>
       <c r="M27" t="n">
-        <v>1281.865341071162</v>
+        <v>1210.453652589958</v>
       </c>
       <c r="N27" t="n">
-        <v>1825.005889615894</v>
+        <v>1753.59420113469</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.98188781822</v>
+        <v>2184.046013682913</v>
       </c>
       <c r="P27" t="n">
-        <v>2441.454349012911</v>
+        <v>2512.518474877605</v>
       </c>
       <c r="Q27" t="n">
         <v>2608.331721117846</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="C28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="D28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="E28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="F28" t="n">
         <v>52.16663442235693</v>
@@ -6405,31 +6405,31 @@
         <v>697.7938045762164</v>
       </c>
       <c r="Q28" t="n">
-        <v>671.4584235827093</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R28" t="n">
-        <v>521.7462985740996</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S28" t="n">
-        <v>306.8511226282438</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T28" t="n">
-        <v>306.8511226282438</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="U28" t="n">
-        <v>306.8511226282438</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="V28" t="n">
-        <v>52.16663442235693</v>
+        <v>470.3368567862429</v>
       </c>
       <c r="W28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="X28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.16663442235693</v>
+        <v>180.9196867492823</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1702.351225231979</v>
+        <v>1374.76763755536</v>
       </c>
       <c r="C29" t="n">
-        <v>1333.388708291567</v>
+        <v>1005.805120614949</v>
       </c>
       <c r="D29" t="n">
-        <v>1333.388708291567</v>
+        <v>1005.805120614949</v>
       </c>
       <c r="E29" t="n">
-        <v>947.6004556933226</v>
+        <v>1005.805120614949</v>
       </c>
       <c r="F29" t="n">
-        <v>536.6145509037151</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="G29" t="n">
         <v>536.6145509037151</v>
@@ -6487,28 +6487,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R29" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S29" t="n">
-        <v>2430.38553790385</v>
+        <v>2370.481244683551</v>
       </c>
       <c r="T29" t="n">
-        <v>2430.38553790385</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="U29" t="n">
-        <v>2176.617543188469</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.554655844899</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.554655844899</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="X29" t="n">
-        <v>1845.554655844899</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="Y29" t="n">
-        <v>1702.351225231979</v>
+        <v>1761.367477619482</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>896.1606826434847</v>
+        <v>925.1215900187177</v>
       </c>
       <c r="C30" t="n">
-        <v>721.7076533623577</v>
+        <v>750.6685607375907</v>
       </c>
       <c r="D30" t="n">
-        <v>572.7732437011065</v>
+        <v>601.7341510763395</v>
       </c>
       <c r="E30" t="n">
-        <v>413.535788695651</v>
+        <v>442.4966960708839</v>
       </c>
       <c r="F30" t="n">
-        <v>359.4346108311528</v>
+        <v>295.9621380977688</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4829690648966</v>
+        <v>158.0104963315126</v>
       </c>
       <c r="H30" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I30" t="n">
         <v>52.16663442235694</v>
       </c>
       <c r="J30" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="K30" t="n">
-        <v>372.2531159191418</v>
+        <v>229.7773015732444</v>
       </c>
       <c r="L30" t="n">
         <v>625.5556454450451</v>
@@ -6584,10 +6584,10 @@
         <v>1479.98781863404</v>
       </c>
       <c r="X30" t="n">
-        <v>1272.136318428507</v>
+        <v>1301.09722580374</v>
       </c>
       <c r="Y30" t="n">
-        <v>1064.376019663553</v>
+        <v>1093.336927038786</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="C31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="D31" t="n">
         <v>52.16663442235694</v>
@@ -6645,28 +6645,28 @@
         <v>697.7938045762164</v>
       </c>
       <c r="R31" t="n">
-        <v>548.0816795676067</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S31" t="n">
-        <v>333.1865036217508</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T31" t="n">
-        <v>105.7295558317773</v>
+        <v>596.0266320433598</v>
       </c>
       <c r="U31" t="n">
-        <v>105.7295558317773</v>
+        <v>306.8511226282438</v>
       </c>
       <c r="V31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="W31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="X31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.7295558317773</v>
+        <v>52.16663442235694</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>848.9407918102088</v>
+        <v>1608.422179779345</v>
       </c>
       <c r="C32" t="n">
-        <v>848.9407918102088</v>
+        <v>1239.459662838934</v>
       </c>
       <c r="D32" t="n">
-        <v>848.9407918102088</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="E32" t="n">
-        <v>463.1525392119645</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F32" t="n">
-        <v>52.16663442235694</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G32" t="n">
         <v>52.16663442235694</v>
@@ -6724,28 +6724,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R32" t="n">
-        <v>2548.427427897548</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S32" t="n">
-        <v>2370.481244683551</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="T32" t="n">
-        <v>2151.506809595294</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="U32" t="n">
-        <v>1897.738814879913</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="V32" t="n">
-        <v>1591.848779056135</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="W32" t="n">
-        <v>1239.080123786021</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="X32" t="n">
-        <v>1239.080123786021</v>
+        <v>2385.161351819279</v>
       </c>
       <c r="Y32" t="n">
-        <v>848.9407918102088</v>
+        <v>1995.022019843467</v>
       </c>
     </row>
     <row r="33">
@@ -6767,10 +6767,10 @@
         <v>413.535788695651</v>
       </c>
       <c r="F33" t="n">
-        <v>295.9621380977688</v>
+        <v>267.001230722536</v>
       </c>
       <c r="G33" t="n">
-        <v>158.0104963315126</v>
+        <v>129.0495889562798</v>
       </c>
       <c r="H33" t="n">
         <v>52.16663442235694</v>
@@ -6779,25 +6779,25 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J33" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="K33" t="n">
-        <v>372.2531159191418</v>
+        <v>300.8414274379375</v>
       </c>
       <c r="L33" t="n">
-        <v>768.0314597909426</v>
+        <v>696.6197713097383</v>
       </c>
       <c r="M33" t="n">
-        <v>1281.865341071162</v>
+        <v>1210.453652589958</v>
       </c>
       <c r="N33" t="n">
-        <v>1682.530075269997</v>
+        <v>1753.59420113469</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.98188781822</v>
+        <v>2184.046013682913</v>
       </c>
       <c r="P33" t="n">
-        <v>2441.454349012912</v>
+        <v>2512.518474877605</v>
       </c>
       <c r="Q33" t="n">
         <v>2608.331721117847</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.16663442235694</v>
+        <v>350.1963674170858</v>
       </c>
       <c r="C34" t="n">
-        <v>52.16663442235694</v>
+        <v>350.1963674170858</v>
       </c>
       <c r="D34" t="n">
-        <v>52.16663442235694</v>
+        <v>200.0797280047501</v>
       </c>
       <c r="E34" t="n">
         <v>52.16663442235694</v>
@@ -6879,31 +6879,31 @@
         <v>697.7938045762164</v>
       </c>
       <c r="Q34" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R34" t="n">
-        <v>515.7493719447682</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S34" t="n">
-        <v>515.7493719447682</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T34" t="n">
-        <v>288.2924241547947</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="U34" t="n">
-        <v>288.2924241547947</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="V34" t="n">
-        <v>288.2924241547947</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="W34" t="n">
-        <v>52.16663442235694</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="X34" t="n">
-        <v>52.16663442235694</v>
+        <v>531.8448322473255</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.16663442235694</v>
+        <v>531.8448322473255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1190.380754759127</v>
+        <v>1209.183578461801</v>
       </c>
       <c r="C35" t="n">
-        <v>821.4182378187149</v>
+        <v>1209.183578461801</v>
       </c>
       <c r="D35" t="n">
-        <v>463.1525392119645</v>
+        <v>1209.183578461801</v>
       </c>
       <c r="E35" t="n">
-        <v>463.1525392119645</v>
+        <v>1209.183578461801</v>
       </c>
       <c r="F35" t="n">
-        <v>52.16663442235694</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="G35" t="n">
-        <v>52.16663442235694</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="H35" t="n">
         <v>52.16663442235694</v>
@@ -6970,19 +6970,19 @@
         <v>2151.506809595294</v>
       </c>
       <c r="U35" t="n">
-        <v>1897.738814879913</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="V35" t="n">
-        <v>1566.675927536342</v>
+        <v>2151.506809595294</v>
       </c>
       <c r="W35" t="n">
-        <v>1566.675927536342</v>
+        <v>1985.922750501735</v>
       </c>
       <c r="X35" t="n">
-        <v>1193.210169275263</v>
+        <v>1985.922750501735</v>
       </c>
       <c r="Y35" t="n">
-        <v>1190.380754759127</v>
+        <v>1595.783418525923</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>267.001230722536</v>
       </c>
       <c r="G36" t="n">
-        <v>129.0495889562798</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H36" t="n">
         <v>115.6391071557409</v>
@@ -7028,13 +7028,13 @@
         <v>1281.865341071162</v>
       </c>
       <c r="N36" t="n">
-        <v>1682.530075269997</v>
+        <v>1825.005889615894</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.98188781822</v>
+        <v>2255.457702164117</v>
       </c>
       <c r="P36" t="n">
-        <v>2441.454349012912</v>
+        <v>2583.930163358809</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.331721117847</v>
@@ -7116,31 +7116,31 @@
         <v>697.7938045762164</v>
       </c>
       <c r="Q37" t="n">
-        <v>665.4614969533779</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="R37" t="n">
-        <v>515.7493719447682</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="S37" t="n">
-        <v>515.7493719447682</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="T37" t="n">
-        <v>515.7493719447682</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="U37" t="n">
-        <v>226.5738625296522</v>
+        <v>408.6182951611004</v>
       </c>
       <c r="V37" t="n">
-        <v>226.5738625296522</v>
+        <v>408.6182951611004</v>
       </c>
       <c r="W37" t="n">
-        <v>226.5738625296522</v>
+        <v>119.2011251241398</v>
       </c>
       <c r="X37" t="n">
-        <v>226.5738625296522</v>
+        <v>119.2011251241398</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.16663442235694</v>
+        <v>119.2011251241398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1077.535935005798</v>
+        <v>779.3948499695191</v>
       </c>
       <c r="C38" t="n">
-        <v>796.2205856273517</v>
+        <v>410.4323330291074</v>
       </c>
       <c r="D38" t="n">
-        <v>437.9548870206012</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="E38" t="n">
         <v>52.16663442235695</v>
@@ -7198,28 +7198,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R38" t="n">
-        <v>2548.427427897548</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S38" t="n">
-        <v>2370.481244683552</v>
+        <v>2430.385537903851</v>
       </c>
       <c r="T38" t="n">
-        <v>2151.506809595294</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="U38" t="n">
-        <v>2151.506809595294</v>
+        <v>1957.643108100213</v>
       </c>
       <c r="V38" t="n">
-        <v>1820.443922251724</v>
+        <v>1626.580220756642</v>
       </c>
       <c r="W38" t="n">
-        <v>1467.675266981609</v>
+        <v>1273.811565486528</v>
       </c>
       <c r="X38" t="n">
-        <v>1467.675266981609</v>
+        <v>900.3458072254482</v>
       </c>
       <c r="Y38" t="n">
-        <v>1077.535935005798</v>
+        <v>779.3948499695191</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>129.0495889562802</v>
       </c>
       <c r="H39" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I39" t="n">
         <v>52.16663442235695</v>
       </c>
       <c r="J39" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="K39" t="n">
-        <v>372.2531159191419</v>
+        <v>300.8414274379376</v>
       </c>
       <c r="L39" t="n">
-        <v>768.0314597909427</v>
+        <v>696.6197713097383</v>
       </c>
       <c r="M39" t="n">
-        <v>1139.389526725265</v>
+        <v>1210.453652589958</v>
       </c>
       <c r="N39" t="n">
-        <v>1682.530075269997</v>
+        <v>1753.59420113469</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.98188781822</v>
+        <v>2184.046013682913</v>
       </c>
       <c r="P39" t="n">
-        <v>2441.454349012912</v>
+        <v>2512.518474877605</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.331721117847</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.16663442235695</v>
+        <v>221.1028173502639</v>
       </c>
       <c r="C40" t="n">
         <v>52.16663442235695</v>
@@ -7353,31 +7353,31 @@
         <v>697.7938045762165</v>
       </c>
       <c r="Q40" t="n">
-        <v>665.4614969533781</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R40" t="n">
-        <v>556.2373197833288</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S40" t="n">
-        <v>341.3421438374729</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T40" t="n">
-        <v>341.3421438374729</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U40" t="n">
-        <v>52.16663442235695</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="V40" t="n">
-        <v>52.16663442235695</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="W40" t="n">
-        <v>52.16663442235695</v>
+        <v>408.3766345392559</v>
       </c>
       <c r="X40" t="n">
-        <v>52.16663442235695</v>
+        <v>221.1028173502639</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.16663442235695</v>
+        <v>221.1028173502639</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1321.641404819504</v>
+        <v>1061.20617251458</v>
       </c>
       <c r="C41" t="n">
-        <v>952.6788878790919</v>
+        <v>1061.20617251458</v>
       </c>
       <c r="D41" t="n">
-        <v>594.4131892723415</v>
+        <v>1061.20617251458</v>
       </c>
       <c r="E41" t="n">
-        <v>208.6249366740972</v>
+        <v>1061.20617251458</v>
       </c>
       <c r="F41" t="n">
-        <v>208.6249366740972</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="G41" t="n">
-        <v>208.6249366740972</v>
+        <v>536.6145509037151</v>
       </c>
       <c r="H41" t="n">
         <v>208.6249366740972</v>
@@ -7411,13 +7411,13 @@
         <v>52.16663442235695</v>
       </c>
       <c r="J41" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414618</v>
       </c>
       <c r="K41" t="n">
-        <v>446.0520696222143</v>
+        <v>446.0520696222147</v>
       </c>
       <c r="L41" t="n">
-        <v>851.3680616038662</v>
+        <v>851.3680616038666</v>
       </c>
       <c r="M41" t="n">
         <v>1318.966744187231</v>
@@ -7435,28 +7435,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R41" t="n">
-        <v>2548.427427897548</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S41" t="n">
-        <v>2370.481244683552</v>
+        <v>2430.385537903851</v>
       </c>
       <c r="T41" t="n">
-        <v>2151.506809595294</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="U41" t="n">
-        <v>1897.738814879913</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="V41" t="n">
-        <v>1897.738814879913</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="W41" t="n">
-        <v>1711.780736795315</v>
+        <v>2211.411102815593</v>
       </c>
       <c r="X41" t="n">
-        <v>1711.780736795315</v>
+        <v>1837.945344554514</v>
       </c>
       <c r="Y41" t="n">
-        <v>1321.641404819504</v>
+        <v>1447.806012578702</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>896.1606826434852</v>
+        <v>988.5940627521016</v>
       </c>
       <c r="C42" t="n">
-        <v>721.7076533623582</v>
+        <v>814.1410334709747</v>
       </c>
       <c r="D42" t="n">
-        <v>572.7732437011069</v>
+        <v>665.2066238097234</v>
       </c>
       <c r="E42" t="n">
-        <v>413.5357886956514</v>
+        <v>505.9691688042678</v>
       </c>
       <c r="F42" t="n">
-        <v>267.0012307225364</v>
+        <v>359.4346108311528</v>
       </c>
       <c r="G42" t="n">
-        <v>129.0495889562802</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H42" t="n">
-        <v>52.16663442235695</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I42" t="n">
         <v>52.16663442235695</v>
@@ -7499,7 +7499,7 @@
         <v>768.0314597909427</v>
       </c>
       <c r="M42" t="n">
-        <v>1139.389526725265</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N42" t="n">
         <v>1682.530075269997</v>
@@ -7517,25 +7517,25 @@
         <v>2555.539927483766</v>
       </c>
       <c r="S42" t="n">
-        <v>2396.595577506926</v>
+        <v>2489.028957615543</v>
       </c>
       <c r="T42" t="n">
-        <v>2197.549639775284</v>
+        <v>2289.983019883901</v>
       </c>
       <c r="U42" t="n">
-        <v>1969.377283593984</v>
+        <v>2061.810663702601</v>
       </c>
       <c r="V42" t="n">
-        <v>1734.225175362242</v>
+        <v>1826.658555470858</v>
       </c>
       <c r="W42" t="n">
-        <v>1479.98781863404</v>
+        <v>1572.421198742656</v>
       </c>
       <c r="X42" t="n">
-        <v>1272.136318428507</v>
+        <v>1364.569698537123</v>
       </c>
       <c r="Y42" t="n">
-        <v>1064.376019663553</v>
+        <v>1156.80939977217</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="C43" t="n">
-        <v>52.16663442235695</v>
+        <v>528.8576216483096</v>
       </c>
       <c r="D43" t="n">
-        <v>52.16663442235695</v>
+        <v>528.8576216483096</v>
       </c>
       <c r="E43" t="n">
-        <v>52.16663442235695</v>
+        <v>380.9445280659165</v>
       </c>
       <c r="F43" t="n">
-        <v>52.16663442235695</v>
+        <v>380.9445280659165</v>
       </c>
       <c r="G43" t="n">
-        <v>52.16663442235695</v>
+        <v>211.9099115267101</v>
       </c>
       <c r="H43" t="n">
-        <v>52.16663442235695</v>
+        <v>53.85199060075817</v>
       </c>
       <c r="I43" t="n">
         <v>52.16663442235695</v>
@@ -7590,31 +7590,31 @@
         <v>697.7938045762165</v>
       </c>
       <c r="Q43" t="n">
-        <v>665.4614969533781</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R43" t="n">
-        <v>665.4614969533781</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S43" t="n">
-        <v>450.5663210075222</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T43" t="n">
-        <v>450.5663210075222</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="V43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="W43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="X43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.1028173502639</v>
+        <v>697.7938045762165</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1225.055899092419</v>
+        <v>1107.384464199137</v>
       </c>
       <c r="C44" t="n">
-        <v>1209.183578461801</v>
+        <v>738.4219472587254</v>
       </c>
       <c r="D44" t="n">
-        <v>1209.183578461801</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="E44" t="n">
-        <v>1209.183578461801</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="F44" t="n">
-        <v>798.1976736721936</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="G44" t="n">
         <v>380.1562486519749</v>
@@ -7666,34 +7666,34 @@
         <v>2169.180204666329</v>
       </c>
       <c r="P44" t="n">
-        <v>2464.089146983795</v>
+        <v>2464.089146983794</v>
       </c>
       <c r="Q44" t="n">
         <v>2608.331721117847</v>
       </c>
       <c r="R44" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S44" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="T44" t="n">
-        <v>2608.331721117847</v>
+        <v>2329.452992809291</v>
       </c>
       <c r="U44" t="n">
-        <v>2354.563726402466</v>
+        <v>2075.68499809391</v>
       </c>
       <c r="V44" t="n">
-        <v>2354.563726402466</v>
+        <v>1744.622110750339</v>
       </c>
       <c r="W44" t="n">
-        <v>2001.795071132352</v>
+        <v>1744.622110750339</v>
       </c>
       <c r="X44" t="n">
-        <v>2001.795071132352</v>
+        <v>1744.622110750339</v>
       </c>
       <c r="Y44" t="n">
-        <v>1611.65573915654</v>
+        <v>1354.482778774527</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>413.5357886956514</v>
       </c>
       <c r="F45" t="n">
-        <v>359.4346108311528</v>
+        <v>267.0012307225364</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4829690648966</v>
+        <v>129.0495889562802</v>
       </c>
       <c r="H45" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I45" t="n">
         <v>52.16663442235695</v>
@@ -7733,10 +7733,10 @@
         <v>372.2531159191419</v>
       </c>
       <c r="L45" t="n">
-        <v>625.5556454450453</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M45" t="n">
-        <v>1139.389526725265</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N45" t="n">
         <v>1682.530075269997</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.16663442235695</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="C46" t="n">
-        <v>52.16663442235695</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="D46" t="n">
-        <v>52.16663442235695</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="E46" t="n">
-        <v>52.16663442235695</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="F46" t="n">
         <v>52.16663442235695</v>
@@ -7830,28 +7830,28 @@
         <v>697.7938045762165</v>
       </c>
       <c r="R46" t="n">
-        <v>697.7938045762165</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="S46" t="n">
-        <v>697.7938045762165</v>
+        <v>333.1865036217509</v>
       </c>
       <c r="T46" t="n">
-        <v>470.3368567862431</v>
+        <v>333.1865036217509</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9592135658871</v>
+        <v>333.1865036217509</v>
       </c>
       <c r="V46" t="n">
-        <v>272.9592135658871</v>
+        <v>333.1865036217509</v>
       </c>
       <c r="W46" t="n">
-        <v>272.9592135658871</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="X46" t="n">
-        <v>272.9592135658871</v>
+        <v>199.0565819202673</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.16663442235695</v>
+        <v>199.0565819202673</v>
       </c>
     </row>
   </sheetData>
@@ -8458,16 +8458,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
         <v>238.109041496981</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8552,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>53.95801667252569</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>226.9253813177038</v>
       </c>
       <c r="M12" t="n">
-        <v>393.9231184321279</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.798708171483</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>249.9473552909744</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.1623237500943</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.4274103577986</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>66.16232375009382</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>53.9580166725257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>192.6832916947063</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577982</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>335.4274103577982</v>
+        <v>335.4274103577986</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252569</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>249.9473552909742</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>138.2953424179764</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252569</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>192.6832916947067</v>
       </c>
       <c r="L30" t="n">
-        <v>226.9253813177042</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252569</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>335.4274103577986</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>138.2953424179769</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>335.4274103577986</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>66.16232375009429</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252567</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>321.7900997642449</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>138.2953424179773</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720742</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11147,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>321.7900997642449</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577989</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928329</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659905</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>226.9253813177043</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577989</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>168.2342928975329</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>154.8937192292228</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.30525028809629</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.9075453413494</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>91.50904630753077</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>91.50904630753064</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3442703738144</v>
+        <v>135.5427473392968</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J13" t="n">
         <v>47.63685490231597</v>
@@ -23463,25 +23463,25 @@
         <v>32.00898454661009</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S13" t="n">
         <v>212.7462241863972</v>
       </c>
       <c r="T13" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2837543209648</v>
       </c>
       <c r="V13" t="n">
-        <v>47.7047469666218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>107.1335467086399</v>
       </c>
       <c r="D14" t="n">
-        <v>197.6831938515164</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.3052502880963</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>91.50904630753067</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>91.50904630753089</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6442129585066</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>167.3442703738144</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J16" t="n">
-        <v>47.63685490231598</v>
+        <v>47.63685490231597</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.0089845466101</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2150037585237</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S16" t="n">
         <v>212.7462241863972</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>158.8182325173089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>31.15835083522342</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>154.8937192292229</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S17" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>290.5533593416019</v>
       </c>
     </row>
     <row r="18">
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>91.50904630753075</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>39.24517060979051</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>64.95331486597689</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3442703738144</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.4773417166924</v>
       </c>
       <c r="I19" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J19" t="n">
-        <v>47.63685490231598</v>
+        <v>47.63685490231597</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2150037585237</v>
+        <v>137.6717178197886</v>
       </c>
       <c r="S19" t="n">
         <v>212.7462241863972</v>
@@ -23946,7 +23946,7 @@
         <v>225.1823783120738</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>220.7029580110686</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>324.7097180873218</v>
       </c>
       <c r="I20" t="n">
-        <v>154.8937192292229</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.3052502880963</v>
+        <v>59.30525028809629</v>
       </c>
       <c r="S20" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.3325105758402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>91.50904630753109</v>
+        <v>28.671298301481</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.83774800605011</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4773417166924</v>
+        <v>21.9076781202692</v>
       </c>
       <c r="I22" t="n">
         <v>136.0021720072259</v>
       </c>
       <c r="J22" t="n">
-        <v>47.63685490231598</v>
+        <v>47.63685490231597</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S22" t="n">
-        <v>204.6913477403212</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U22" t="n">
         <v>286.2837543209648</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>306.3285194581289</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.8610107700165</v>
@@ -24262,16 +24262,16 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>138.6639114954417</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>28.671298301481</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>91.5090463075307</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>156.2402552144371</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>136.0021720072259</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R25" t="n">
         <v>148.2150037585236</v>
@@ -24420,16 +24420,16 @@
         <v>225.1823783120738</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>191.3544941408822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>167.6155728400247</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.8610107700165</v>
       </c>
       <c r="H26" t="n">
-        <v>324.7097180873218</v>
+        <v>266.1525282782736</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>59.30525028809629</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>91.50904630753109</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>28.671298301481</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>62.83774800605011</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>17.95552621927511</v>
       </c>
       <c r="G28" t="n">
         <v>167.3442703738144</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.936957363038065</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T28" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2837543209648</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>356.2383924976066</v>
       </c>
       <c r="G29" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>59.30525028809629</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.4665423492627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>91.50904630753067</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>62.83774800605011</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>28.67129830148053</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>95.58818082288616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,19 +24885,19 @@
         <v>32.00898454661009</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>124.4328775045457</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>324.7097180873218</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>59.30525028809629</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V32" t="n">
-        <v>24.92112300459434</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>148.7924350728868</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>28.67129830148058</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>28.67129830148055</v>
       </c>
       <c r="I33" t="n">
         <v>62.83774800605011</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S34" t="n">
         <v>212.7462241863972</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U34" t="n">
         <v>286.2837543209648</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>52.75846650147761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>61.42017278343513</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>154.8937192292228</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>185.3127502147893</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>383.4368182850789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>91.50904630753067</v>
       </c>
       <c r="H36" t="n">
-        <v>91.50904630753067</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>113.4678343871722</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S37" t="n">
         <v>212.7462241863972</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.92149752587247</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>86.77069588634606</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>266.4964909726838</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>91.50904630753023</v>
+        <v>28.67129830148012</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25593,28 +25593,28 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R40" t="n">
-        <v>40.08306836017483</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T40" t="n">
         <v>225.1823783120738</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>40.30857637193503</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>301.3913511169715</v>
       </c>
       <c r="G41" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,16 +25684,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>165.1424714136609</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>28.67129830148012</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>91.50904630753043</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3442703738144</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.0021720072258</v>
+        <v>134.3336693906086</v>
       </c>
       <c r="J43" t="n">
         <v>47.63685490231597</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.00898454661009</v>
       </c>
       <c r="R43" t="n">
         <v>148.2150037585236</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T43" t="n">
         <v>225.1823783120738</v>
       </c>
       <c r="U43" t="n">
-        <v>59.11488570027907</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>138.1065102338444</v>
       </c>
       <c r="C44" t="n">
-        <v>349.5592943466961</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.30525028809627</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>176.1667213818563</v>
       </c>
       <c r="T44" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>91.50904630753027</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>28.67129830148012</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3442703738144</v>
@@ -26070,28 +26070,28 @@
         <v>32.00898454661009</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U46" t="n">
-        <v>90.8798875328124</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.7343758521222</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662967.6434991719</v>
+        <v>662967.6434991721</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662967.6434991719</v>
+        <v>662967.6434991722</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662967.6434991721</v>
+        <v>662967.6434991719</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>662967.6434991721</v>
+        <v>662967.6434991722</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662967.6434991723</v>
+        <v>662967.6434991719</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662967.6434991723</v>
+        <v>662967.6434991721</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662967.6434991722</v>
+        <v>662967.6434991723</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>662967.6434991722</v>
+        <v>662967.6434991723</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377786</v>
+        <v>614457.2540377789</v>
       </c>
       <c r="D2" t="n">
-        <v>615278.253899339</v>
+        <v>615278.2538993392</v>
       </c>
       <c r="E2" t="n">
-        <v>424362.0490714345</v>
+        <v>424362.0490714347</v>
       </c>
       <c r="F2" t="n">
         <v>424362.0490714345</v>
       </c>
       <c r="G2" t="n">
-        <v>424362.0490714346</v>
+        <v>424362.0490714347</v>
       </c>
       <c r="H2" t="n">
-        <v>424362.0490714347</v>
+        <v>424362.0490714345</v>
       </c>
       <c r="I2" t="n">
-        <v>424362.0490714346</v>
+        <v>424362.0490714345</v>
       </c>
       <c r="J2" t="n">
         <v>424362.0490714345</v>
       </c>
       <c r="K2" t="n">
+        <v>424362.0490714344</v>
+      </c>
+      <c r="L2" t="n">
         <v>424362.0490714345</v>
       </c>
-      <c r="L2" t="n">
-        <v>424362.0490714347</v>
-      </c>
       <c r="M2" t="n">
+        <v>424362.0490714344</v>
+      </c>
+      <c r="N2" t="n">
         <v>424362.0490714345</v>
       </c>
-      <c r="N2" t="n">
-        <v>424362.0490714347</v>
-      </c>
       <c r="O2" t="n">
-        <v>424362.0490714346</v>
+        <v>424362.0490714345</v>
       </c>
       <c r="P2" t="n">
-        <v>424362.0490714346</v>
+        <v>424362.0490714345</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>403521.8812643668</v>
       </c>
       <c r="E4" t="n">
+        <v>97647.55866553298</v>
+      </c>
+      <c r="F4" t="n">
         <v>97647.55866553297</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>97647.55866553297</v>
+      </c>
+      <c r="H4" t="n">
         <v>97647.55866553298</v>
-      </c>
-      <c r="G4" t="n">
-        <v>97647.55866553298</v>
-      </c>
-      <c r="H4" t="n">
-        <v>97647.55866553297</v>
       </c>
       <c r="I4" t="n">
         <v>97647.55866553298</v>
       </c>
       <c r="J4" t="n">
+        <v>97647.55866553295</v>
+      </c>
+      <c r="K4" t="n">
         <v>97647.55866553297</v>
       </c>
-      <c r="K4" t="n">
-        <v>97647.55866553298</v>
-      </c>
       <c r="L4" t="n">
-        <v>97647.55866553298</v>
+        <v>97647.55866553297</v>
       </c>
       <c r="M4" t="n">
-        <v>97647.55866553298</v>
+        <v>97647.55866553297</v>
       </c>
       <c r="N4" t="n">
         <v>97647.55866553297</v>
       </c>
       <c r="O4" t="n">
-        <v>97647.55866553298</v>
+        <v>97647.558665533</v>
       </c>
       <c r="P4" t="n">
         <v>97647.55866553298</v>
@@ -26490,7 +26490,7 @@
         <v>47464.7658680829</v>
       </c>
       <c r="I5" t="n">
-        <v>47464.7658680829</v>
+        <v>47464.76586808291</v>
       </c>
       <c r="J5" t="n">
         <v>47464.7658680829</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176807.9959779644</v>
+        <v>176763.8601992834</v>
       </c>
       <c r="C6" t="n">
-        <v>176807.9959779643</v>
+        <v>176763.8601992836</v>
       </c>
       <c r="D6" t="n">
-        <v>175574.8029651284</v>
+        <v>175558.0338484994</v>
       </c>
       <c r="E6" t="n">
-        <v>-201518.8951955537</v>
+        <v>-207899.5378064461</v>
       </c>
       <c r="F6" t="n">
-        <v>279249.7245378186</v>
+        <v>272869.081926926</v>
       </c>
       <c r="G6" t="n">
-        <v>279249.7245378187</v>
+        <v>272869.0819269262</v>
       </c>
       <c r="H6" t="n">
-        <v>279249.7245378188</v>
+        <v>272869.0819269261</v>
       </c>
       <c r="I6" t="n">
-        <v>279249.7245378187</v>
+        <v>272869.081926926</v>
       </c>
       <c r="J6" t="n">
-        <v>279249.7245378186</v>
+        <v>272869.0819269261</v>
       </c>
       <c r="K6" t="n">
-        <v>279249.7245378186</v>
+        <v>272869.0819269259</v>
       </c>
       <c r="L6" t="n">
-        <v>277509.4592450032</v>
+        <v>271128.8166341105</v>
       </c>
       <c r="M6" t="n">
-        <v>118461.5880834731</v>
+        <v>112080.9454725804</v>
       </c>
       <c r="N6" t="n">
-        <v>279249.7245378188</v>
+        <v>272869.081926926</v>
       </c>
       <c r="O6" t="n">
-        <v>279249.7245378187</v>
+        <v>272869.081926926</v>
       </c>
       <c r="P6" t="n">
-        <v>279249.7245378187</v>
+        <v>272869.081926926</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="F3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="G3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="H3" t="n">
         <v>358.6295278482403</v>
@@ -26810,7 +26810,7 @@
         <v>652.0829302794616</v>
       </c>
       <c r="I4" t="n">
-        <v>652.0829302794616</v>
+        <v>652.0829302794617</v>
       </c>
       <c r="J4" t="n">
         <v>652.0829302794616</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>645.2068845377504</v>
+        <v>645.2068845377503</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.8739489829624</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2198038224199</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>84.0868030883735</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>200.3728660142628</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,19 +28052,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>173.9584110229766</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.5282322627954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31755,10 +31755,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H11" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I11" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J11" t="n">
         <v>122.3647553335059</v>
@@ -31770,10 +31770,10 @@
         <v>227.5152933302963</v>
       </c>
       <c r="M11" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N11" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O11" t="n">
         <v>242.9147371265938</v>
@@ -31785,13 +31785,13 @@
         <v>155.6902690469213</v>
       </c>
       <c r="R11" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S11" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T11" t="n">
-        <v>6.311158826756469</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U11" t="n">
         <v>0.1153381396094842</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H12" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I12" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J12" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K12" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L12" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M12" t="n">
         <v>195.453092677291</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O12" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P12" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R12" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S12" t="n">
         <v>14.32826462676695</v>
@@ -31873,7 +31873,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H13" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I13" t="n">
         <v>19.44830292003245</v>
       </c>
       <c r="J13" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K13" t="n">
-        <v>75.13582567050017</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L13" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M13" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N13" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O13" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P13" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.15305870508429</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R13" t="n">
         <v>29.07838761864584</v>
@@ -31949,7 +31949,7 @@
         <v>11.27037385057502</v>
       </c>
       <c r="T13" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U13" t="n">
         <v>0.03527503552605647</v>
@@ -31992,10 +31992,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H14" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I14" t="n">
-        <v>55.58217034118306</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J14" t="n">
         <v>122.3647553335059</v>
@@ -32004,31 +32004,31 @@
         <v>183.3930484543743</v>
       </c>
       <c r="L14" t="n">
-        <v>227.5152933302962</v>
+        <v>227.5152933302963</v>
       </c>
       <c r="M14" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N14" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O14" t="n">
         <v>242.9147371265938</v>
       </c>
       <c r="P14" t="n">
-        <v>207.3221081064794</v>
+        <v>207.3221081064795</v>
       </c>
       <c r="Q14" t="n">
-        <v>155.6902690469212</v>
+        <v>155.6902690469213</v>
       </c>
       <c r="R14" t="n">
-        <v>90.56386765305338</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S14" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T14" t="n">
-        <v>6.311158826756468</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U14" t="n">
         <v>0.1153381396094842</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7713918146169697</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H15" t="n">
-        <v>7.450020946432314</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I15" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J15" t="n">
-        <v>72.87960999414099</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K15" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L15" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M15" t="n">
-        <v>195.4530926772909</v>
+        <v>195.453092677291</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O15" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P15" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.46748847636968</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R15" t="n">
-        <v>47.89395845490275</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S15" t="n">
         <v>14.32826462676695</v>
@@ -32110,7 +32110,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05074946148795855</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6467089846443677</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H16" t="n">
-        <v>5.7498307907472</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I16" t="n">
-        <v>19.44830292003244</v>
+        <v>19.44830292003245</v>
       </c>
       <c r="J16" t="n">
-        <v>45.72232521435679</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K16" t="n">
-        <v>75.13582567050015</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L16" t="n">
-        <v>96.14798849885446</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M16" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N16" t="n">
-        <v>98.96411216835135</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O16" t="n">
-        <v>91.40937539318756</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P16" t="n">
-        <v>78.21651210644239</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.15305870508428</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R16" t="n">
-        <v>29.07838761864583</v>
+        <v>29.07838761864584</v>
       </c>
       <c r="S16" t="n">
         <v>11.27037385057502</v>
       </c>
       <c r="T16" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03527503552605646</v>
+        <v>0.03527503552605647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H17" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I17" t="n">
-        <v>55.58217034118306</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J17" t="n">
         <v>122.3647553335059</v>
@@ -32241,31 +32241,31 @@
         <v>183.3930484543743</v>
       </c>
       <c r="L17" t="n">
-        <v>227.5152933302962</v>
+        <v>227.5152933302963</v>
       </c>
       <c r="M17" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N17" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O17" t="n">
         <v>242.9147371265938</v>
       </c>
       <c r="P17" t="n">
-        <v>207.3221081064794</v>
+        <v>207.3221081064795</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.6902690469212</v>
+        <v>155.6902690469213</v>
       </c>
       <c r="R17" t="n">
-        <v>90.56386765305338</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S17" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T17" t="n">
-        <v>6.311158826756468</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U17" t="n">
         <v>0.1153381396094842</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7713918146169697</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H18" t="n">
-        <v>7.450020946432314</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I18" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J18" t="n">
-        <v>72.87960999414099</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K18" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L18" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M18" t="n">
-        <v>195.4530926772909</v>
+        <v>195.453092677291</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O18" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P18" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.46748847636968</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R18" t="n">
-        <v>47.89395845490275</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S18" t="n">
         <v>14.32826462676695</v>
@@ -32347,7 +32347,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05074946148795855</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6467089846443677</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H19" t="n">
-        <v>5.7498307907472</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I19" t="n">
-        <v>19.44830292003244</v>
+        <v>19.44830292003245</v>
       </c>
       <c r="J19" t="n">
-        <v>45.72232521435679</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K19" t="n">
-        <v>75.13582567050015</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L19" t="n">
-        <v>96.14798849885446</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M19" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N19" t="n">
-        <v>98.96411216835135</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O19" t="n">
-        <v>91.40937539318756</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P19" t="n">
-        <v>78.21651210644239</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.15305870508428</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R19" t="n">
-        <v>29.07838761864583</v>
+        <v>29.07838761864584</v>
       </c>
       <c r="S19" t="n">
         <v>11.27037385057502</v>
       </c>
       <c r="T19" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03527503552605646</v>
+        <v>0.03527503552605647</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>14.76508402844538</v>
       </c>
       <c r="I20" t="n">
-        <v>55.58217034118306</v>
+        <v>55.58217034118307</v>
       </c>
       <c r="J20" t="n">
         <v>122.3647553335059</v>
@@ -32478,7 +32478,7 @@
         <v>183.3930484543743</v>
       </c>
       <c r="L20" t="n">
-        <v>227.5152933302962</v>
+        <v>227.5152933302963</v>
       </c>
       <c r="M20" t="n">
         <v>253.1546013337983</v>
@@ -32490,19 +32490,19 @@
         <v>242.9147371265938</v>
       </c>
       <c r="P20" t="n">
-        <v>207.3221081064794</v>
+        <v>207.3221081064795</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.6902690469212</v>
+        <v>155.6902690469213</v>
       </c>
       <c r="R20" t="n">
-        <v>90.56386765305338</v>
+        <v>90.56386765305339</v>
       </c>
       <c r="S20" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T20" t="n">
-        <v>6.311158826756468</v>
+        <v>6.311158826756469</v>
       </c>
       <c r="U20" t="n">
         <v>0.1153381396094842</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7713918146169697</v>
+        <v>0.7713918146169698</v>
       </c>
       <c r="H21" t="n">
-        <v>7.450020946432314</v>
+        <v>7.450020946432315</v>
       </c>
       <c r="I21" t="n">
         <v>26.55888484536497</v>
       </c>
       <c r="J21" t="n">
-        <v>72.87960999414099</v>
+        <v>72.87960999414101</v>
       </c>
       <c r="K21" t="n">
         <v>124.562861573478</v>
@@ -32560,7 +32560,7 @@
         <v>167.4901393974258</v>
       </c>
       <c r="M21" t="n">
-        <v>195.4530926772909</v>
+        <v>195.453092677291</v>
       </c>
       <c r="N21" t="n">
         <v>200.6261544516302</v>
@@ -32572,10 +32572,10 @@
         <v>147.3020036175159</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.46748847636968</v>
+        <v>98.4674884763697</v>
       </c>
       <c r="R21" t="n">
-        <v>47.89395845490275</v>
+        <v>47.89395845490276</v>
       </c>
       <c r="S21" t="n">
         <v>14.32826462676695</v>
@@ -32584,7 +32584,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05074946148795855</v>
+        <v>0.05074946148795856</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6467089846443677</v>
+        <v>0.6467089846443678</v>
       </c>
       <c r="H22" t="n">
-        <v>5.7498307907472</v>
+        <v>5.749830790747201</v>
       </c>
       <c r="I22" t="n">
-        <v>19.44830292003244</v>
+        <v>19.44830292003245</v>
       </c>
       <c r="J22" t="n">
-        <v>45.72232521435679</v>
+        <v>45.7223252143568</v>
       </c>
       <c r="K22" t="n">
-        <v>75.13582567050015</v>
+        <v>75.13582567050017</v>
       </c>
       <c r="L22" t="n">
-        <v>96.14798849885446</v>
+        <v>96.14798849885447</v>
       </c>
       <c r="M22" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N22" t="n">
-        <v>98.96411216835135</v>
+        <v>98.96411216835136</v>
       </c>
       <c r="O22" t="n">
-        <v>91.40937539318756</v>
+        <v>91.40937539318757</v>
       </c>
       <c r="P22" t="n">
-        <v>78.21651210644239</v>
+        <v>78.21651210644241</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.15305870508428</v>
+        <v>54.15305870508429</v>
       </c>
       <c r="R22" t="n">
-        <v>29.07838761864583</v>
+        <v>29.07838761864584</v>
       </c>
       <c r="S22" t="n">
         <v>11.27037385057502</v>
@@ -32663,7 +32663,7 @@
         <v>2.763211116207752</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03527503552605646</v>
+        <v>0.03527503552605647</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K11" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L11" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M11" t="n">
         <v>472.3219015993581</v>
@@ -35424,7 +35424,7 @@
         <v>465.1847682637597</v>
       </c>
       <c r="O11" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P11" t="n">
         <v>297.8878205226926</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K12" t="n">
         <v>251.1866596116976</v>
       </c>
       <c r="L12" t="n">
-        <v>399.7761049210109</v>
+        <v>255.8611409352555</v>
       </c>
       <c r="M12" t="n">
-        <v>447.2421771874006</v>
+        <v>519.0241225052725</v>
       </c>
       <c r="N12" t="n">
-        <v>548.6268167118504</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O12" t="n">
         <v>434.7998106547709</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L13" t="n">
         <v>123.7380137591706</v>
@@ -35582,10 +35582,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O13" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P13" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K14" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L14" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M14" t="n">
         <v>472.3219015993581</v>
       </c>
       <c r="N14" t="n">
-        <v>465.1847682637596</v>
+        <v>465.1847682637597</v>
       </c>
       <c r="O14" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8878205226929</v>
+        <v>297.8878205226926</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.6995698323764</v>
+        <v>145.6995698323765</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.13301866788314</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K15" t="n">
         <v>251.1866596116976</v>
       </c>
       <c r="L15" t="n">
-        <v>399.7761049210108</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M15" t="n">
         <v>519.0241225052725</v>
       </c>
       <c r="N15" t="n">
-        <v>548.6268167118504</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O15" t="n">
-        <v>434.7998106547709</v>
+        <v>290.8848466690158</v>
       </c>
       <c r="P15" t="n">
-        <v>331.7903648431228</v>
+        <v>331.7903648431229</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.64803814044247</v>
+        <v>168.5630021261973</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>52.8663338446173</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L16" t="n">
         <v>123.7380137591706</v>
       </c>
       <c r="M16" t="n">
-        <v>140.958449891139</v>
+        <v>140.9584498911391</v>
       </c>
       <c r="N16" t="n">
         <v>143.09628454758</v>
       </c>
       <c r="O16" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P16" t="n">
-        <v>75.49507137133588</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K17" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L17" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M17" t="n">
         <v>472.3219015993581</v>
       </c>
       <c r="N17" t="n">
-        <v>465.1847682637596</v>
+        <v>465.1847682637597</v>
       </c>
       <c r="O17" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P17" t="n">
         <v>297.8878205226926</v>
       </c>
       <c r="Q17" t="n">
-        <v>145.6995698323764</v>
+        <v>145.6995698323765</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.13301866788314</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K18" t="n">
         <v>251.1866596116976</v>
       </c>
       <c r="L18" t="n">
-        <v>399.7761049210108</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M18" t="n">
         <v>519.0241225052725</v>
       </c>
       <c r="N18" t="n">
-        <v>404.7118527260956</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O18" t="n">
         <v>434.7998106547709</v>
       </c>
       <c r="P18" t="n">
-        <v>331.7903648431228</v>
+        <v>331.7903648431229</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.5630021261973</v>
+        <v>24.64803814044201</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>52.8663338446173</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L19" t="n">
         <v>123.7380137591706</v>
       </c>
       <c r="M19" t="n">
-        <v>140.958449891139</v>
+        <v>140.9584498911391</v>
       </c>
       <c r="N19" t="n">
         <v>143.09628454758</v>
       </c>
       <c r="O19" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P19" t="n">
-        <v>75.49507137133588</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.4154659788933</v>
+        <v>110.4154659788934</v>
       </c>
       <c r="K20" t="n">
         <v>287.4486099805584</v>
@@ -36132,7 +36132,7 @@
         <v>472.3219015993581</v>
       </c>
       <c r="N20" t="n">
-        <v>465.1847682637596</v>
+        <v>465.1847682637597</v>
       </c>
       <c r="O20" t="n">
         <v>393.6167069676524</v>
@@ -36141,7 +36141,7 @@
         <v>297.8878205226926</v>
       </c>
       <c r="Q20" t="n">
-        <v>145.6995698323764</v>
+        <v>145.6995698323765</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>72.13301866788315</v>
       </c>
       <c r="K21" t="n">
-        <v>179.4047142938253</v>
+        <v>251.1866596116976</v>
       </c>
       <c r="L21" t="n">
-        <v>399.7761049210108</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M21" t="n">
         <v>519.0241225052725</v>
       </c>
       <c r="N21" t="n">
-        <v>548.6268167118504</v>
+        <v>404.7118527260951</v>
       </c>
       <c r="O21" t="n">
         <v>434.7998106547709</v>
       </c>
       <c r="P21" t="n">
-        <v>331.7903648431228</v>
+        <v>331.7903648431229</v>
       </c>
       <c r="Q21" t="n">
         <v>168.5630021261973</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>52.8663338446173</v>
+        <v>52.86633384461732</v>
       </c>
       <c r="L22" t="n">
         <v>123.7380137591706</v>
       </c>
       <c r="M22" t="n">
-        <v>140.958449891139</v>
+        <v>140.9584498911391</v>
       </c>
       <c r="N22" t="n">
         <v>143.09628454758</v>
@@ -36296,7 +36296,7 @@
         <v>115.9945033072272</v>
       </c>
       <c r="P22" t="n">
-        <v>75.49507137133588</v>
+        <v>75.4950713713359</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N24" t="n">
-        <v>404.7118527260951</v>
+        <v>404.7118527260956</v>
       </c>
       <c r="O24" t="n">
         <v>434.7998106547709</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>72.13301866788315</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>251.1866596116976</v>
@@ -36688,13 +36688,13 @@
         <v>548.6268167118504</v>
       </c>
       <c r="O27" t="n">
-        <v>290.8848466690155</v>
+        <v>434.7998106547709</v>
       </c>
       <c r="P27" t="n">
         <v>331.7903648431229</v>
       </c>
       <c r="Q27" t="n">
-        <v>168.5630021261973</v>
+        <v>96.78105680832462</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>72.13301866788315</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>251.1866596116976</v>
+        <v>179.4047142938257</v>
       </c>
       <c r="L30" t="n">
-        <v>255.8611409352559</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M30" t="n">
         <v>519.0241225052725</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>72.13301866788315</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>251.1866596116976</v>
@@ -37159,7 +37159,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N33" t="n">
-        <v>404.7118527260956</v>
+        <v>548.6268167118504</v>
       </c>
       <c r="O33" t="n">
         <v>434.7998106547709</v>
@@ -37168,7 +37168,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q33" t="n">
-        <v>168.5630021261973</v>
+        <v>96.78105680832508</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N36" t="n">
-        <v>404.7118527260956</v>
+        <v>548.6268167118504</v>
       </c>
       <c r="O36" t="n">
         <v>434.7998106547709</v>
@@ -37405,7 +37405,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q36" t="n">
-        <v>168.5630021261973</v>
+        <v>24.64803814044247</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>72.13301866788316</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>251.1866596116976</v>
@@ -37630,7 +37630,7 @@
         <v>399.7761049210109</v>
       </c>
       <c r="M39" t="n">
-        <v>375.1091585195176</v>
+        <v>519.0241225052725</v>
       </c>
       <c r="N39" t="n">
         <v>548.6268167118506</v>
@@ -37642,7 +37642,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q39" t="n">
-        <v>168.5630021261973</v>
+        <v>96.78105680832553</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>110.4154659788934</v>
+        <v>110.4154659788938</v>
       </c>
       <c r="K41" t="n">
         <v>287.4486099805585</v>
@@ -37791,7 +37791,7 @@
         <v>472.3219015993581</v>
       </c>
       <c r="N41" t="n">
-        <v>465.1847682637602</v>
+        <v>465.1847682637597</v>
       </c>
       <c r="O41" t="n">
         <v>393.6167069676525</v>
@@ -37867,10 +37867,10 @@
         <v>399.7761049210109</v>
       </c>
       <c r="M42" t="n">
-        <v>375.1091585195176</v>
+        <v>519.0241225052725</v>
       </c>
       <c r="N42" t="n">
-        <v>548.6268167118506</v>
+        <v>404.7118527260958</v>
       </c>
       <c r="O42" t="n">
         <v>434.7998106547709</v>
@@ -38025,7 +38025,7 @@
         <v>409.4100929107595</v>
       </c>
       <c r="M44" t="n">
-        <v>472.3219015993586</v>
+        <v>472.3219015993581</v>
       </c>
       <c r="N44" t="n">
         <v>465.1847682637597</v>
@@ -38037,7 +38037,7 @@
         <v>297.8878205226926</v>
       </c>
       <c r="Q44" t="n">
-        <v>145.6995698323765</v>
+        <v>145.6995698323768</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>251.1866596116976</v>
       </c>
       <c r="L45" t="n">
-        <v>255.861140935256</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M45" t="n">
         <v>519.0241225052725</v>
       </c>
       <c r="N45" t="n">
-        <v>548.6268167118506</v>
+        <v>404.7118527260958</v>
       </c>
       <c r="O45" t="n">
         <v>434.7998106547709</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1648112.965636187</v>
+        <v>1680538.593432254</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1255864.580128043</v>
+        <v>1255864.58012804</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7667275.200470263</v>
+        <v>7667275.200470255</v>
       </c>
     </row>
     <row r="9">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1156,46 +1156,46 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.309829763041575</v>
+      </c>
+      <c r="I9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.309829763041575</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,7 +1262,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="J10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>197.0385988734746</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>229.9612638808084</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>154.8937192292228</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.30525028809627</v>
+        <v>59.30525028809626</v>
       </c>
       <c r="S11" t="n">
         <v>176.1667213818563</v>
@@ -1426,19 +1426,19 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U11" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>45.06307904106302</v>
+        <v>136.5721253485937</v>
       </c>
       <c r="H12" t="n">
-        <v>104.7854232900641</v>
+        <v>76.11412498858446</v>
       </c>
       <c r="I12" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.26387569774037</v>
+        <v>52.26387569774036</v>
       </c>
       <c r="S12" t="n">
         <v>157.3549064770709</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>31.80152303451761</v>
+        <v>167.3442703738144</v>
       </c>
       <c r="H13" t="n">
         <v>156.4773417166924</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.1823783120738</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>63.21164303798621</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>258.1393450623677</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>413.8610107700165</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.30525028809626</v>
       </c>
       <c r="S14" t="n">
         <v>176.1667213818563</v>
@@ -1663,19 +1663,19 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.8897410999178</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H15" t="n">
-        <v>104.7854232900641</v>
+        <v>76.11412498858446</v>
       </c>
       <c r="I15" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.26387569774037</v>
+        <v>52.26387569774036</v>
       </c>
       <c r="S15" t="n">
         <v>157.3549064770709</v>
@@ -1742,7 +1742,7 @@
         <v>197.055478354326</v>
       </c>
       <c r="U15" t="n">
-        <v>134.381586311956</v>
+        <v>225.8906326194869</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.97126005970573</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>66.36414579476514</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.8610107700165</v>
       </c>
       <c r="H17" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.7846907373749</v>
+        <v>189.233128246543</v>
       </c>
       <c r="U17" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>95.68457931445165</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H18" t="n">
-        <v>104.7854232900641</v>
+        <v>76.11412498858446</v>
       </c>
       <c r="I18" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>52.26387569774036</v>
       </c>
       <c r="S18" t="n">
         <v>157.3549064770709</v>
       </c>
       <c r="T18" t="n">
-        <v>157.8103077445355</v>
+        <v>197.055478354326</v>
       </c>
       <c r="U18" t="n">
         <v>225.8906326194869</v>
@@ -2010,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3442703738144</v>
+        <v>20.3972999722192</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.54328593873504</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>144.5699337599389</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>176.1667213818563</v>
+        <v>168.2506541440042</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U20" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5721253485937</v>
+        <v>45.06307904106344</v>
       </c>
       <c r="H21" t="n">
-        <v>76.11412498858314</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.83774800605009</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.26387569774037</v>
+        <v>52.26387569774035</v>
       </c>
       <c r="S21" t="n">
         <v>157.3549064770709</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5696635964232</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S22" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>143.8770934132321</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.40532220535169</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H23" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>59.30525028809629</v>
       </c>
       <c r="S23" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>150.8929248434924</v>
       </c>
     </row>
     <row r="24">
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.26387569774037</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>157.3549064770709</v>
+        <v>118.109735867281</v>
       </c>
       <c r="T24" t="n">
         <v>197.055478354326</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>160.1859368533889</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23.5917249675002</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>85.13486538886922</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>129.9278779584459</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H26" t="n">
-        <v>58.55718980904817</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H27" t="n">
-        <v>76.11412498858314</v>
+        <v>76.1141249885836</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,46 +2724,46 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>127.4655218036561</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.1823783120738</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>50.6376532441048</v>
+        <v>186.5790909869358</v>
       </c>
       <c r="G29" t="n">
         <v>413.8610107700165</v>
       </c>
       <c r="H29" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>154.8937192292228</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>59.30525028809629</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S29" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5721253485937</v>
+        <v>107.9008270471131</v>
       </c>
       <c r="H30" t="n">
         <v>104.7854232900641</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>177.1016869019969</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>49.73659575246832</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.7495008075281</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>45.52062014311208</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.8610107700165</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>220.9386656055823</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5721253485937</v>
+        <v>45.06307904106302</v>
       </c>
       <c r="H33" t="n">
-        <v>76.1141249885836</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>164.289482605602</v>
+        <v>134.0632467636351</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.8610107700165</v>
+        <v>357.0092470676685</v>
       </c>
       <c r="H35" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>59.30525028809629</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S35" t="n">
         <v>176.1667213818563</v>
@@ -3322,13 +3322,13 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>163.9282185026237</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>45.06307904106299</v>
+        <v>136.5721253485937</v>
       </c>
       <c r="H36" t="n">
         <v>104.7854232900641</v>
       </c>
       <c r="I36" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.26387569774037</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>157.3549064770709</v>
       </c>
       <c r="T36" t="n">
-        <v>197.055478354326</v>
+        <v>157.8103077445364</v>
       </c>
       <c r="U36" t="n">
         <v>225.8906326194869</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.36414579476505</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.2837543209648</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>66.36414579476516</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>26.78187936357793</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S38" t="n">
         <v>176.1667213818563</v>
       </c>
       <c r="T38" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>119.7414476833698</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5721253485937</v>
+        <v>97.32695473880398</v>
       </c>
       <c r="H39" t="n">
-        <v>76.11412498858402</v>
+        <v>104.7854232900641</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.26387569774037</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>157.3549064770709</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3442703738144</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.1342826032905</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>185.4010790171021</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>105.48469462474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.8610107700165</v>
       </c>
       <c r="H41" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>154.8937192292228</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>176.1667213818563</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.7846907373749</v>
+        <v>130.7761710567671</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.26387569774037</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>65.84586016954044</v>
+        <v>118.109735867281</v>
       </c>
       <c r="T42" t="n">
         <v>197.055478354326</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>156.4773417166924</v>
       </c>
       <c r="I43" t="n">
-        <v>1.668502616617209</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>102.6030621754169</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6273314296362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H44" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>59.30525028809627</v>
+        <v>45.98217675287231</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>216.7846907373749</v>
       </c>
       <c r="U44" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>136.5721253485937</v>
       </c>
       <c r="H45" t="n">
-        <v>76.11412498858402</v>
+        <v>13.27637698253392</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>51.64194906362117</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>132.7886224844688</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4813,10 +4813,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
@@ -4825,31 +4825,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F9" t="n">
         <v>13.6131814684388</v>
@@ -4877,7 +4877,7 @@
         <v>13.6131814684388</v>
       </c>
       <c r="H9" t="n">
-        <v>6.667680719235332</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4895,7 +4895,7 @@
         <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
         <v>20.69689768255142</v>
@@ -4910,25 +4910,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4983,31 +4983,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1897.738814879913</v>
+        <v>670.2389919507107</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.709927128928</v>
+        <v>670.2389919507107</v>
       </c>
       <c r="D11" t="n">
-        <v>1340.444228522178</v>
+        <v>437.9548870206012</v>
       </c>
       <c r="E11" t="n">
-        <v>954.6559759239337</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="F11" t="n">
-        <v>954.6559759239337</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="G11" t="n">
-        <v>536.6145509037151</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="H11" t="n">
-        <v>208.6249366740972</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I11" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J11" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414613</v>
       </c>
       <c r="K11" t="n">
         <v>446.0520696222143</v>
       </c>
       <c r="L11" t="n">
-        <v>851.368061603866</v>
+        <v>851.3680616038663</v>
       </c>
       <c r="M11" t="n">
         <v>1318.966744187231</v>
@@ -5059,34 +5059,34 @@
         <v>2169.180204666329</v>
       </c>
       <c r="P11" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q11" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R11" t="n">
-        <v>2548.427427897548</v>
+        <v>2548.427427897549</v>
       </c>
       <c r="S11" t="n">
-        <v>2370.481244683551</v>
+        <v>2370.481244683552</v>
       </c>
       <c r="T11" t="n">
-        <v>2151.506809595294</v>
+        <v>2151.506809595295</v>
       </c>
       <c r="U11" t="n">
-        <v>1897.738814879913</v>
+        <v>2151.506809595295</v>
       </c>
       <c r="V11" t="n">
-        <v>1897.738814879913</v>
+        <v>1820.443922251724</v>
       </c>
       <c r="W11" t="n">
-        <v>1897.738814879913</v>
+        <v>1820.443922251724</v>
       </c>
       <c r="X11" t="n">
-        <v>1897.738814879913</v>
+        <v>1446.978163990644</v>
       </c>
       <c r="Y11" t="n">
-        <v>1897.738814879913</v>
+        <v>1056.838832014832</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>896.1606826434847</v>
+        <v>896.1606826434856</v>
       </c>
       <c r="C12" t="n">
-        <v>721.7076533623577</v>
+        <v>721.7076533623587</v>
       </c>
       <c r="D12" t="n">
-        <v>572.7732437011065</v>
+        <v>572.7732437011074</v>
       </c>
       <c r="E12" t="n">
-        <v>413.535788695651</v>
+        <v>413.5357886956519</v>
       </c>
       <c r="F12" t="n">
-        <v>267.001230722536</v>
+        <v>267.0012307225369</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4829690648966</v>
+        <v>129.0495889562807</v>
       </c>
       <c r="H12" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I12" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J12" t="n">
         <v>123.5783229035613</v>
@@ -5126,46 +5126,46 @@
         <v>372.2531159191419</v>
       </c>
       <c r="L12" t="n">
-        <v>625.5556454450449</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M12" t="n">
-        <v>1139.389526725265</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N12" t="n">
-        <v>1682.530075269997</v>
+        <v>1825.005889615894</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.98188781822</v>
+        <v>2255.457702164118</v>
       </c>
       <c r="P12" t="n">
-        <v>2441.454349012912</v>
+        <v>2583.930163358809</v>
       </c>
       <c r="Q12" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R12" t="n">
-        <v>2555.539927483765</v>
+        <v>2555.539927483766</v>
       </c>
       <c r="S12" t="n">
-        <v>2396.595577506926</v>
+        <v>2396.595577506927</v>
       </c>
       <c r="T12" t="n">
-        <v>2197.549639775284</v>
+        <v>2197.549639775285</v>
       </c>
       <c r="U12" t="n">
-        <v>1969.377283593984</v>
+        <v>1969.377283593985</v>
       </c>
       <c r="V12" t="n">
-        <v>1734.225175362241</v>
+        <v>1734.225175362242</v>
       </c>
       <c r="W12" t="n">
         <v>1479.98781863404</v>
       </c>
       <c r="X12" t="n">
-        <v>1272.136318428507</v>
+        <v>1272.136318428508</v>
       </c>
       <c r="Y12" t="n">
-        <v>1064.376019663553</v>
+        <v>1064.376019663554</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="C13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="D13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="E13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="F13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="G13" t="n">
-        <v>210.2245553483088</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="H13" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I13" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J13" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="K13" t="n">
         <v>104.5043049285281</v>
       </c>
       <c r="L13" t="n">
-        <v>227.004938550107</v>
+        <v>227.0049385501071</v>
       </c>
       <c r="M13" t="n">
-        <v>366.5538039423347</v>
+        <v>366.5538039423348</v>
       </c>
       <c r="N13" t="n">
         <v>508.2191256444389</v>
       </c>
       <c r="O13" t="n">
-        <v>623.0536839185938</v>
+        <v>623.0536839185939</v>
       </c>
       <c r="P13" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Q13" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R13" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S13" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T13" t="n">
-        <v>470.3368567862429</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U13" t="n">
-        <v>470.3368567862429</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="V13" t="n">
-        <v>470.3368567862429</v>
+        <v>443.1093163703297</v>
       </c>
       <c r="W13" t="n">
-        <v>470.3368567862429</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="X13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.3473058882256</v>
+        <v>379.2591718875153</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1116.743125235131</v>
+        <v>1911.2141418176</v>
       </c>
       <c r="C14" t="n">
-        <v>855.9963120408199</v>
+        <v>1542.251624877188</v>
       </c>
       <c r="D14" t="n">
-        <v>855.9963120408199</v>
+        <v>1183.985926270438</v>
       </c>
       <c r="E14" t="n">
-        <v>470.2080594425756</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="F14" t="n">
-        <v>470.2080594425756</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="G14" t="n">
-        <v>52.16663442235694</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="H14" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I14" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J14" t="n">
         <v>161.4779457414613</v>
@@ -5284,7 +5284,7 @@
         <v>446.0520696222143</v>
       </c>
       <c r="L14" t="n">
-        <v>851.3680616038662</v>
+        <v>851.3680616038663</v>
       </c>
       <c r="M14" t="n">
         <v>1318.966744187231</v>
@@ -5296,34 +5296,34 @@
         <v>2169.180204666329</v>
       </c>
       <c r="P14" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q14" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897549</v>
       </c>
       <c r="S14" t="n">
-        <v>2430.38553790385</v>
+        <v>2370.481244683552</v>
       </c>
       <c r="T14" t="n">
-        <v>2211.411102815593</v>
+        <v>2151.506809595295</v>
       </c>
       <c r="U14" t="n">
-        <v>2211.411102815593</v>
+        <v>1911.2141418176</v>
       </c>
       <c r="V14" t="n">
-        <v>1880.348215472022</v>
+        <v>1911.2141418176</v>
       </c>
       <c r="W14" t="n">
-        <v>1880.348215472022</v>
+        <v>1911.2141418176</v>
       </c>
       <c r="X14" t="n">
-        <v>1506.882457210942</v>
+        <v>1911.2141418176</v>
       </c>
       <c r="Y14" t="n">
-        <v>1116.743125235131</v>
+        <v>1911.2141418176</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.5940627521016</v>
+        <v>896.1606826434856</v>
       </c>
       <c r="C15" t="n">
-        <v>814.1410334709747</v>
+        <v>721.7076533623587</v>
       </c>
       <c r="D15" t="n">
-        <v>665.2066238097234</v>
+        <v>572.7732437011074</v>
       </c>
       <c r="E15" t="n">
-        <v>505.9691688042678</v>
+        <v>413.5357886956519</v>
       </c>
       <c r="F15" t="n">
-        <v>359.4346108311528</v>
+        <v>267.0012307225369</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4829690648966</v>
+        <v>129.0495889562807</v>
       </c>
       <c r="H15" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I15" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J15" t="n">
         <v>123.5783229035613</v>
@@ -5369,40 +5369,40 @@
         <v>1281.865341071162</v>
       </c>
       <c r="N15" t="n">
-        <v>1825.005889615894</v>
+        <v>1682.530075269998</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.98188781822</v>
+        <v>2112.981887818221</v>
       </c>
       <c r="P15" t="n">
-        <v>2441.454349012912</v>
+        <v>2441.454349012913</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R15" t="n">
-        <v>2555.539927483765</v>
+        <v>2555.539927483766</v>
       </c>
       <c r="S15" t="n">
-        <v>2396.595577506926</v>
+        <v>2396.595577506927</v>
       </c>
       <c r="T15" t="n">
-        <v>2197.549639775284</v>
+        <v>2197.549639775285</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.810663702601</v>
+        <v>1969.377283593985</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.658555470858</v>
+        <v>1734.225175362242</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.421198742656</v>
+        <v>1479.98781863404</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.569698537123</v>
+        <v>1272.136318428508</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.80939977217</v>
+        <v>1064.376019663554</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>222.3167372267995</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="C16" t="n">
-        <v>222.3167372267995</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="D16" t="n">
-        <v>210.2245553483088</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="E16" t="n">
-        <v>210.2245553483088</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="F16" t="n">
-        <v>210.2245553483088</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="G16" t="n">
-        <v>210.2245553483088</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="H16" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I16" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J16" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="K16" t="n">
         <v>104.5043049285281</v>
       </c>
       <c r="L16" t="n">
-        <v>227.004938550107</v>
+        <v>227.0049385501071</v>
       </c>
       <c r="M16" t="n">
-        <v>366.5538039423347</v>
+        <v>366.5538039423348</v>
       </c>
       <c r="N16" t="n">
         <v>508.2191256444389</v>
       </c>
       <c r="O16" t="n">
-        <v>623.0536839185938</v>
+        <v>623.0536839185939</v>
       </c>
       <c r="P16" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Q16" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R16" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S16" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T16" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U16" t="n">
-        <v>697.7938045762164</v>
+        <v>408.6182951611005</v>
       </c>
       <c r="V16" t="n">
-        <v>443.1093163703296</v>
+        <v>408.6182951611005</v>
       </c>
       <c r="W16" t="n">
-        <v>443.1093163703296</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="X16" t="n">
-        <v>443.1093163703296</v>
+        <v>119.2011251241399</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.3167372267995</v>
+        <v>119.2011251241399</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.463372278944</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="C17" t="n">
-        <v>1156.463372278944</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="D17" t="n">
-        <v>798.1976736721936</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="E17" t="n">
-        <v>798.1976736721936</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F17" t="n">
-        <v>798.1976736721936</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G17" t="n">
-        <v>380.1562486519749</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="H17" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I17" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J17" t="n">
-        <v>161.4779457414613</v>
+        <v>161.4779457414614</v>
       </c>
       <c r="K17" t="n">
-        <v>446.0520696222143</v>
+        <v>446.0520696222144</v>
       </c>
       <c r="L17" t="n">
-        <v>851.3680616038662</v>
+        <v>851.3680616038669</v>
       </c>
       <c r="M17" t="n">
         <v>1318.966744187231</v>
@@ -5533,34 +5533,34 @@
         <v>2169.180204666329</v>
       </c>
       <c r="P17" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q17" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="S17" t="n">
-        <v>2430.38553790385</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="T17" t="n">
-        <v>2211.411102815593</v>
+        <v>2417.187147131441</v>
       </c>
       <c r="U17" t="n">
-        <v>1957.643108100212</v>
+        <v>2417.187147131441</v>
       </c>
       <c r="V17" t="n">
-        <v>1626.580220756642</v>
+        <v>2417.187147131441</v>
       </c>
       <c r="W17" t="n">
-        <v>1626.580220756642</v>
+        <v>2417.187147131441</v>
       </c>
       <c r="X17" t="n">
-        <v>1253.114462495562</v>
+        <v>2043.721388870361</v>
       </c>
       <c r="Y17" t="n">
-        <v>1156.463372278944</v>
+        <v>1653.582056894549</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.5940627521016</v>
+        <v>896.1606826434856</v>
       </c>
       <c r="C18" t="n">
-        <v>814.1410334709747</v>
+        <v>721.7076533623587</v>
       </c>
       <c r="D18" t="n">
-        <v>665.2066238097234</v>
+        <v>572.7732437011074</v>
       </c>
       <c r="E18" t="n">
-        <v>505.9691688042678</v>
+        <v>413.5357886956519</v>
       </c>
       <c r="F18" t="n">
-        <v>359.4346108311528</v>
+        <v>267.0012307225369</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4829690648966</v>
+        <v>129.0495889562807</v>
       </c>
       <c r="H18" t="n">
-        <v>115.6391071557409</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I18" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J18" t="n">
         <v>123.5783229035613</v>
@@ -5606,40 +5606,40 @@
         <v>1281.865341071162</v>
       </c>
       <c r="N18" t="n">
-        <v>1825.005889615894</v>
+        <v>1682.530075269998</v>
       </c>
       <c r="O18" t="n">
-        <v>2255.457702164118</v>
+        <v>2112.981887818221</v>
       </c>
       <c r="P18" t="n">
-        <v>2583.930163358809</v>
+        <v>2441.454349012913</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R18" t="n">
-        <v>2608.331721117847</v>
+        <v>2555.539927483766</v>
       </c>
       <c r="S18" t="n">
-        <v>2449.387371141007</v>
+        <v>2396.595577506927</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.983019883901</v>
+        <v>2197.549639775285</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.810663702601</v>
+        <v>1969.377283593985</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.658555470858</v>
+        <v>1734.225175362242</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.421198742656</v>
+        <v>1479.98781863404</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.569698537123</v>
+        <v>1272.136318428508</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.80939977217</v>
+        <v>1064.376019663554</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="C19" t="n">
-        <v>518.2078378718095</v>
+        <v>528.8576216483096</v>
       </c>
       <c r="D19" t="n">
-        <v>368.0911984594737</v>
+        <v>378.7409822359739</v>
       </c>
       <c r="E19" t="n">
-        <v>368.0911984594737</v>
+        <v>230.8278886535808</v>
       </c>
       <c r="F19" t="n">
-        <v>221.2012509615634</v>
+        <v>230.8278886535808</v>
       </c>
       <c r="G19" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="H19" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I19" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J19" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="K19" t="n">
         <v>104.5043049285281</v>
       </c>
       <c r="L19" t="n">
-        <v>227.004938550107</v>
+        <v>227.0049385501071</v>
       </c>
       <c r="M19" t="n">
-        <v>366.5538039423347</v>
+        <v>366.5538039423348</v>
       </c>
       <c r="N19" t="n">
         <v>508.2191256444389</v>
       </c>
       <c r="O19" t="n">
-        <v>623.0536839185938</v>
+        <v>623.0536839185939</v>
       </c>
       <c r="P19" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Q19" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="V19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="W19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="X19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.1440207997164</v>
+        <v>697.7938045762165</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1413.012452951578</v>
+        <v>1493.172716797381</v>
       </c>
       <c r="C20" t="n">
-        <v>1266.982216830427</v>
+        <v>1124.21019985697</v>
       </c>
       <c r="D20" t="n">
-        <v>1266.982216830427</v>
+        <v>765.9445012502191</v>
       </c>
       <c r="E20" t="n">
-        <v>881.1939642321831</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="F20" t="n">
-        <v>470.2080594425756</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="G20" t="n">
-        <v>52.16663442235693</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="H20" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I20" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J20" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414615</v>
       </c>
       <c r="K20" t="n">
-        <v>446.0520696222143</v>
+        <v>446.0520696222144</v>
       </c>
       <c r="L20" t="n">
-        <v>851.3680616038662</v>
+        <v>851.3680616038663</v>
       </c>
       <c r="M20" t="n">
         <v>1318.966744187231</v>
       </c>
       <c r="N20" t="n">
-        <v>1779.499664768352</v>
+        <v>1779.499664768353</v>
       </c>
       <c r="O20" t="n">
-        <v>2169.180204666328</v>
+        <v>2169.180204666329</v>
       </c>
       <c r="P20" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q20" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S20" t="n">
-        <v>2430.38553790385</v>
+        <v>2438.381565416833</v>
       </c>
       <c r="T20" t="n">
-        <v>2430.38553790385</v>
+        <v>2219.407130328575</v>
       </c>
       <c r="U20" t="n">
-        <v>2176.617543188469</v>
+        <v>2219.407130328575</v>
       </c>
       <c r="V20" t="n">
-        <v>2176.617543188469</v>
+        <v>2219.407130328575</v>
       </c>
       <c r="W20" t="n">
-        <v>2176.617543188469</v>
+        <v>1866.638475058461</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.15178492739</v>
+        <v>1493.172716797381</v>
       </c>
       <c r="Y20" t="n">
-        <v>1413.012452951578</v>
+        <v>1493.172716797381</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>896.1606826434843</v>
+        <v>896.1606826434852</v>
       </c>
       <c r="C21" t="n">
-        <v>721.7076533623573</v>
+        <v>721.7076533623582</v>
       </c>
       <c r="D21" t="n">
-        <v>572.773243701106</v>
+        <v>572.7732437011069</v>
       </c>
       <c r="E21" t="n">
-        <v>413.5357886956505</v>
+        <v>413.5357886956514</v>
       </c>
       <c r="F21" t="n">
-        <v>267.0012307225355</v>
+        <v>267.0012307225364</v>
       </c>
       <c r="G21" t="n">
-        <v>129.0495889562793</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H21" t="n">
-        <v>52.16663442235693</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I21" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J21" t="n">
         <v>123.5783229035613</v>
       </c>
       <c r="K21" t="n">
-        <v>372.2531159191418</v>
+        <v>372.253115919142</v>
       </c>
       <c r="L21" t="n">
-        <v>768.0314597909426</v>
+        <v>768.0314597909428</v>
       </c>
       <c r="M21" t="n">
-        <v>1281.865341071162</v>
+        <v>1281.865341071163</v>
       </c>
       <c r="N21" t="n">
-        <v>1682.530075269996</v>
+        <v>1682.530075269997</v>
       </c>
       <c r="O21" t="n">
         <v>2112.98188781822</v>
       </c>
       <c r="P21" t="n">
-        <v>2441.454349012911</v>
+        <v>2441.454349012912</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R21" t="n">
-        <v>2555.539927483765</v>
+        <v>2555.539927483766</v>
       </c>
       <c r="S21" t="n">
         <v>2396.595577506926</v>
       </c>
       <c r="T21" t="n">
-        <v>2197.549639775283</v>
+        <v>2197.549639775284</v>
       </c>
       <c r="U21" t="n">
-        <v>1969.377283593983</v>
+        <v>1969.377283593984</v>
       </c>
       <c r="V21" t="n">
-        <v>1734.225175362241</v>
+        <v>1734.225175362242</v>
       </c>
       <c r="W21" t="n">
-        <v>1479.987818634039</v>
+        <v>1479.98781863404</v>
       </c>
       <c r="X21" t="n">
-        <v>1272.136318428506</v>
+        <v>1272.136318428507</v>
       </c>
       <c r="Y21" t="n">
-        <v>1064.376019663552</v>
+        <v>1064.376019663553</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>482.8986286303606</v>
+        <v>221.1028173502639</v>
       </c>
       <c r="C22" t="n">
-        <v>482.8986286303606</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="D22" t="n">
-        <v>482.8986286303606</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="E22" t="n">
-        <v>334.9855350479675</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="F22" t="n">
-        <v>188.0955875500571</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="G22" t="n">
-        <v>188.0955875500571</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="H22" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I22" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J22" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="K22" t="n">
         <v>104.5043049285281</v>
       </c>
       <c r="L22" t="n">
-        <v>227.004938550107</v>
+        <v>227.0049385501071</v>
       </c>
       <c r="M22" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423348</v>
       </c>
       <c r="N22" t="n">
-        <v>508.2191256444388</v>
+        <v>508.219125644439</v>
       </c>
       <c r="O22" t="n">
-        <v>623.0536839185938</v>
+        <v>623.0536839185939</v>
       </c>
       <c r="P22" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Q22" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R22" t="n">
-        <v>697.7938045762164</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="S22" t="n">
-        <v>482.8986286303606</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="T22" t="n">
-        <v>482.8986286303606</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="U22" t="n">
-        <v>482.8986286303606</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="V22" t="n">
-        <v>482.8986286303606</v>
+        <v>402.7512821805036</v>
       </c>
       <c r="W22" t="n">
-        <v>482.8986286303606</v>
+        <v>402.7512821805036</v>
       </c>
       <c r="X22" t="n">
-        <v>482.8986286303606</v>
+        <v>402.7512821805036</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.8986286303606</v>
+        <v>402.7512821805036</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1176.930406039827</v>
+        <v>1635.944733770839</v>
       </c>
       <c r="C23" t="n">
-        <v>1176.930406039827</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="D23" t="n">
-        <v>1176.930406039827</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="E23" t="n">
-        <v>791.1421534415824</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F23" t="n">
-        <v>380.1562486519749</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G23" t="n">
-        <v>380.1562486519749</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="H23" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I23" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J23" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414616</v>
       </c>
       <c r="K23" t="n">
-        <v>446.0520696222143</v>
+        <v>446.0520696222145</v>
       </c>
       <c r="L23" t="n">
-        <v>851.3680616038662</v>
+        <v>851.3680616038664</v>
       </c>
       <c r="M23" t="n">
         <v>1318.966744187231</v>
@@ -6007,7 +6007,7 @@
         <v>2169.180204666329</v>
       </c>
       <c r="P23" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q23" t="n">
         <v>2608.331721117847</v>
@@ -6016,25 +6016,25 @@
         <v>2548.427427897548</v>
       </c>
       <c r="S23" t="n">
-        <v>2370.481244683551</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="T23" t="n">
-        <v>2370.481244683551</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="U23" t="n">
-        <v>2370.481244683551</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="V23" t="n">
-        <v>2370.481244683551</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="W23" t="n">
-        <v>2017.712589413437</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="X23" t="n">
-        <v>1644.246831152357</v>
+        <v>2174.961669636468</v>
       </c>
       <c r="Y23" t="n">
-        <v>1254.107499176546</v>
+        <v>2022.544573834961</v>
       </c>
     </row>
     <row r="24">
@@ -6065,13 +6065,13 @@
         <v>115.6391071557409</v>
       </c>
       <c r="I24" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J24" t="n">
         <v>123.5783229035613</v>
       </c>
       <c r="K24" t="n">
-        <v>372.2531159191418</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L24" t="n">
         <v>768.0314597909426</v>
@@ -6092,19 +6092,19 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R24" t="n">
-        <v>2555.539927483765</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S24" t="n">
-        <v>2396.595577506926</v>
+        <v>2489.028957615543</v>
       </c>
       <c r="T24" t="n">
-        <v>2197.549639775284</v>
+        <v>2289.983019883901</v>
       </c>
       <c r="U24" t="n">
-        <v>1969.377283593984</v>
+        <v>2061.810663702601</v>
       </c>
       <c r="V24" t="n">
-        <v>1734.225175362241</v>
+        <v>1826.658555470858</v>
       </c>
       <c r="W24" t="n">
         <v>1572.421198742656</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.9637793565192</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="C25" t="n">
-        <v>505.0275964286123</v>
+        <v>357.1145028462192</v>
       </c>
       <c r="D25" t="n">
-        <v>505.0275964286123</v>
+        <v>357.1145028462192</v>
       </c>
       <c r="E25" t="n">
         <v>357.1145028462192</v>
       </c>
       <c r="F25" t="n">
-        <v>210.2245553483088</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="G25" t="n">
-        <v>210.2245553483088</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="H25" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I25" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="J25" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="K25" t="n">
         <v>104.5043049285281</v>
@@ -6183,16 +6183,16 @@
         <v>697.7938045762164</v>
       </c>
       <c r="V25" t="n">
-        <v>697.7938045762164</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="W25" t="n">
-        <v>697.7938045762164</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="X25" t="n">
-        <v>697.7938045762164</v>
+        <v>443.1093163703296</v>
       </c>
       <c r="Y25" t="n">
-        <v>697.7938045762164</v>
+        <v>443.1093163703296</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>908.0894683850049</v>
+        <v>1398.222497596534</v>
       </c>
       <c r="C26" t="n">
-        <v>908.0894683850049</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="D26" t="n">
-        <v>908.0894683850049</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="E26" t="n">
-        <v>522.3012157867606</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F26" t="n">
-        <v>111.3153109971531</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G26" t="n">
-        <v>111.3153109971531</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="H26" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I26" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J26" t="n">
         <v>161.4779457414616</v>
@@ -6247,31 +6247,31 @@
         <v>2464.089146983794</v>
       </c>
       <c r="Q26" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R26" t="n">
-        <v>2608.331721117846</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S26" t="n">
-        <v>2608.331721117846</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="T26" t="n">
-        <v>2389.357286029589</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="U26" t="n">
-        <v>2389.357286029589</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="V26" t="n">
-        <v>2058.294398686018</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="W26" t="n">
-        <v>2058.294398686018</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="X26" t="n">
-        <v>1684.828640424938</v>
+        <v>2174.961669636468</v>
       </c>
       <c r="Y26" t="n">
-        <v>1294.689308449127</v>
+        <v>1784.822337660656</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>896.1606826434843</v>
+        <v>896.1606826434847</v>
       </c>
       <c r="C27" t="n">
-        <v>721.7076533623573</v>
+        <v>721.7076533623577</v>
       </c>
       <c r="D27" t="n">
-        <v>572.773243701106</v>
+        <v>572.7732437011065</v>
       </c>
       <c r="E27" t="n">
-        <v>413.5357886956505</v>
+        <v>413.535788695651</v>
       </c>
       <c r="F27" t="n">
-        <v>267.0012307225355</v>
+        <v>267.001230722536</v>
       </c>
       <c r="G27" t="n">
-        <v>129.0495889562793</v>
+        <v>129.0495889562798</v>
       </c>
       <c r="H27" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I27" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J27" t="n">
-        <v>52.16663442235693</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K27" t="n">
-        <v>300.8414274379375</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L27" t="n">
-        <v>696.6197713097383</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.453652589958</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N27" t="n">
-        <v>1753.59420113469</v>
+        <v>1682.530075269997</v>
       </c>
       <c r="O27" t="n">
-        <v>2184.046013682913</v>
+        <v>2112.98188781822</v>
       </c>
       <c r="P27" t="n">
-        <v>2512.518474877605</v>
+        <v>2441.454349012912</v>
       </c>
       <c r="Q27" t="n">
-        <v>2608.331721117846</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="R27" t="n">
         <v>2555.539927483765</v>
@@ -6335,22 +6335,22 @@
         <v>2396.595577506926</v>
       </c>
       <c r="T27" t="n">
-        <v>2197.549639775283</v>
+        <v>2197.549639775284</v>
       </c>
       <c r="U27" t="n">
-        <v>1969.377283593983</v>
+        <v>1969.377283593984</v>
       </c>
       <c r="V27" t="n">
         <v>1734.225175362241</v>
       </c>
       <c r="W27" t="n">
-        <v>1479.987818634039</v>
+        <v>1479.98781863404</v>
       </c>
       <c r="X27" t="n">
-        <v>1272.136318428506</v>
+        <v>1272.136318428507</v>
       </c>
       <c r="Y27" t="n">
-        <v>1064.376019663552</v>
+        <v>1064.376019663553</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="C28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="D28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="E28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="F28" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="G28" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="H28" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I28" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="J28" t="n">
-        <v>52.16663442235693</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="K28" t="n">
         <v>104.5043049285281</v>
@@ -6393,10 +6393,10 @@
         <v>227.004938550107</v>
       </c>
       <c r="M28" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N28" t="n">
-        <v>508.2191256444388</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O28" t="n">
         <v>623.0536839185938</v>
@@ -6411,25 +6411,25 @@
         <v>697.7938045762164</v>
       </c>
       <c r="S28" t="n">
-        <v>697.7938045762164</v>
+        <v>569.040752249291</v>
       </c>
       <c r="T28" t="n">
-        <v>470.3368567862429</v>
+        <v>341.5838044593175</v>
       </c>
       <c r="U28" t="n">
-        <v>470.3368567862429</v>
+        <v>341.5838044593175</v>
       </c>
       <c r="V28" t="n">
-        <v>470.3368567862429</v>
+        <v>341.5838044593175</v>
       </c>
       <c r="W28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="X28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.9196867492823</v>
+        <v>52.16663442235694</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1374.76763755536</v>
+        <v>1771.688255857614</v>
       </c>
       <c r="C29" t="n">
-        <v>1005.805120614949</v>
+        <v>1402.725738917203</v>
       </c>
       <c r="D29" t="n">
-        <v>1005.805120614949</v>
+        <v>1044.460040310452</v>
       </c>
       <c r="E29" t="n">
-        <v>1005.805120614949</v>
+        <v>658.6717877122078</v>
       </c>
       <c r="F29" t="n">
-        <v>954.6559759239337</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G29" t="n">
-        <v>536.6145509037151</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="H29" t="n">
-        <v>208.6249366740972</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="I29" t="n">
         <v>52.16663442235694</v>
       </c>
       <c r="J29" t="n">
-        <v>161.4779457414614</v>
+        <v>161.4779457414616</v>
       </c>
       <c r="K29" t="n">
-        <v>446.0520696222143</v>
+        <v>446.0520696222145</v>
       </c>
       <c r="L29" t="n">
-        <v>851.368061603866</v>
+        <v>851.3680616038664</v>
       </c>
       <c r="M29" t="n">
-        <v>1318.96674418723</v>
+        <v>1318.966744187231</v>
       </c>
       <c r="N29" t="n">
         <v>1779.499664768352</v>
@@ -6490,25 +6490,25 @@
         <v>2548.427427897548</v>
       </c>
       <c r="S29" t="n">
-        <v>2370.481244683551</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="T29" t="n">
-        <v>2151.506809595294</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="U29" t="n">
-        <v>2151.506809595294</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="V29" t="n">
-        <v>2151.506809595294</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="W29" t="n">
-        <v>2151.506809595294</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="X29" t="n">
-        <v>2151.506809595294</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="Y29" t="n">
-        <v>1761.367477619482</v>
+        <v>2158.288095921736</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>925.1215900187177</v>
+        <v>896.1606826434847</v>
       </c>
       <c r="C30" t="n">
-        <v>750.6685607375907</v>
+        <v>721.7076533623577</v>
       </c>
       <c r="D30" t="n">
-        <v>601.7341510763395</v>
+        <v>572.7732437011065</v>
       </c>
       <c r="E30" t="n">
-        <v>442.4966960708839</v>
+        <v>413.535788695651</v>
       </c>
       <c r="F30" t="n">
-        <v>295.9621380977688</v>
+        <v>267.001230722536</v>
       </c>
       <c r="G30" t="n">
         <v>158.0104963315126</v>
@@ -6542,16 +6542,16 @@
         <v>52.16663442235694</v>
       </c>
       <c r="J30" t="n">
-        <v>52.16663442235694</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K30" t="n">
-        <v>229.7773015732444</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L30" t="n">
-        <v>625.5556454450451</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M30" t="n">
-        <v>1139.389526725265</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N30" t="n">
         <v>1682.530075269997</v>
@@ -6584,10 +6584,10 @@
         <v>1479.98781863404</v>
       </c>
       <c r="X30" t="n">
-        <v>1301.09722580374</v>
+        <v>1272.136318428507</v>
       </c>
       <c r="Y30" t="n">
-        <v>1093.336927038786</v>
+        <v>1064.376019663553</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="C31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="D31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="E31" t="n">
-        <v>52.16663442235694</v>
+        <v>260.4635409568627</v>
       </c>
       <c r="F31" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="G31" t="n">
-        <v>52.16663442235694</v>
+        <v>210.2245553483088</v>
       </c>
       <c r="H31" t="n">
         <v>52.16663442235694</v>
@@ -6630,10 +6630,10 @@
         <v>227.004938550107</v>
       </c>
       <c r="M31" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N31" t="n">
-        <v>508.2191256444388</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O31" t="n">
         <v>623.0536839185938</v>
@@ -6651,22 +6651,22 @@
         <v>697.7938045762164</v>
       </c>
       <c r="T31" t="n">
-        <v>596.0266320433598</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="U31" t="n">
-        <v>306.8511226282438</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="V31" t="n">
-        <v>52.16663442235694</v>
+        <v>697.7938045762164</v>
       </c>
       <c r="W31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="X31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.16663442235694</v>
+        <v>408.3766345392558</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1608.422179779345</v>
+        <v>1999.217954053778</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.459662838934</v>
+        <v>1953.237529666796</v>
       </c>
       <c r="D32" t="n">
-        <v>881.1939642321831</v>
+        <v>1594.971831060045</v>
       </c>
       <c r="E32" t="n">
-        <v>881.1939642321831</v>
+        <v>1209.183578461801</v>
       </c>
       <c r="F32" t="n">
-        <v>470.2080594425756</v>
+        <v>798.1976736721936</v>
       </c>
       <c r="G32" t="n">
-        <v>52.16663442235694</v>
+        <v>380.1562486519749</v>
       </c>
       <c r="H32" t="n">
         <v>52.16663442235694</v>
@@ -6706,16 +6706,16 @@
         <v>446.0520696222143</v>
       </c>
       <c r="L32" t="n">
-        <v>851.368061603866</v>
+        <v>851.3680616038662</v>
       </c>
       <c r="M32" t="n">
-        <v>1318.96674418723</v>
+        <v>1318.966744187231</v>
       </c>
       <c r="N32" t="n">
-        <v>1779.499664768352</v>
+        <v>1779.499664768353</v>
       </c>
       <c r="O32" t="n">
-        <v>2169.180204666328</v>
+        <v>2169.180204666329</v>
       </c>
       <c r="P32" t="n">
         <v>2464.089146983794</v>
@@ -6730,22 +6730,22 @@
         <v>2608.331721117847</v>
       </c>
       <c r="T32" t="n">
-        <v>2608.331721117847</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="U32" t="n">
-        <v>2608.331721117847</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="V32" t="n">
-        <v>2608.331721117847</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="W32" t="n">
-        <v>2608.331721117847</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="X32" t="n">
-        <v>2385.161351819279</v>
+        <v>2389.357286029589</v>
       </c>
       <c r="Y32" t="n">
-        <v>1995.022019843467</v>
+        <v>1999.217954053778</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>267.001230722536</v>
       </c>
       <c r="G33" t="n">
-        <v>129.0495889562798</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H33" t="n">
-        <v>52.16663442235694</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I33" t="n">
         <v>52.16663442235694</v>
       </c>
       <c r="J33" t="n">
-        <v>52.16663442235694</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K33" t="n">
-        <v>300.8414274379375</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L33" t="n">
-        <v>696.6197713097383</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.453652589958</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N33" t="n">
-        <v>1753.59420113469</v>
+        <v>1682.530075269997</v>
       </c>
       <c r="O33" t="n">
-        <v>2184.046013682913</v>
+        <v>2112.98188781822</v>
       </c>
       <c r="P33" t="n">
-        <v>2512.518474877605</v>
+        <v>2441.454349012912</v>
       </c>
       <c r="Q33" t="n">
         <v>2608.331721117847</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.1963674170858</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="C34" t="n">
-        <v>350.1963674170858</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="D34" t="n">
-        <v>200.0797280047501</v>
+        <v>52.16663442235694</v>
       </c>
       <c r="E34" t="n">
         <v>52.16663442235694</v>
@@ -6867,10 +6867,10 @@
         <v>227.004938550107</v>
       </c>
       <c r="M34" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423347</v>
       </c>
       <c r="N34" t="n">
-        <v>508.2191256444388</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O34" t="n">
         <v>623.0536839185938</v>
@@ -6897,13 +6897,13 @@
         <v>697.7938045762164</v>
       </c>
       <c r="W34" t="n">
-        <v>697.7938045762164</v>
+        <v>408.3766345392558</v>
       </c>
       <c r="X34" t="n">
-        <v>531.8448322473255</v>
+        <v>272.959213565887</v>
       </c>
       <c r="Y34" t="n">
-        <v>531.8448322473255</v>
+        <v>52.16663442235694</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1209.183578461801</v>
+        <v>823.7679402904175</v>
       </c>
       <c r="C35" t="n">
-        <v>1209.183578461801</v>
+        <v>823.7679402904175</v>
       </c>
       <c r="D35" t="n">
-        <v>1209.183578461801</v>
+        <v>823.7679402904175</v>
       </c>
       <c r="E35" t="n">
-        <v>1209.183578461801</v>
+        <v>823.7679402904175</v>
       </c>
       <c r="F35" t="n">
-        <v>798.1976736721936</v>
+        <v>412.78203550081</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1562486519749</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="H35" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I35" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J35" t="n">
-        <v>161.4779457414611</v>
+        <v>161.4779457414618</v>
       </c>
       <c r="K35" t="n">
-        <v>446.0520696222143</v>
+        <v>446.052069622215</v>
       </c>
       <c r="L35" t="n">
-        <v>851.368061603866</v>
+        <v>851.3680616038671</v>
       </c>
       <c r="M35" t="n">
-        <v>1318.96674418723</v>
+        <v>1318.966744187232</v>
       </c>
       <c r="N35" t="n">
-        <v>1779.499664768352</v>
+        <v>1779.499664768354</v>
       </c>
       <c r="O35" t="n">
-        <v>2169.180204666328</v>
+        <v>2169.18020466633</v>
       </c>
       <c r="P35" t="n">
-        <v>2464.089146983794</v>
+        <v>2464.089146983795</v>
       </c>
       <c r="Q35" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R35" t="n">
-        <v>2548.427427897548</v>
+        <v>2548.427427897549</v>
       </c>
       <c r="S35" t="n">
-        <v>2370.481244683551</v>
+        <v>2370.481244683552</v>
       </c>
       <c r="T35" t="n">
-        <v>2151.506809595294</v>
+        <v>2151.506809595295</v>
       </c>
       <c r="U35" t="n">
-        <v>2151.506809595294</v>
+        <v>1897.738814879914</v>
       </c>
       <c r="V35" t="n">
-        <v>2151.506809595294</v>
+        <v>1566.675927536343</v>
       </c>
       <c r="W35" t="n">
-        <v>1985.922750501735</v>
+        <v>1213.907272266229</v>
       </c>
       <c r="X35" t="n">
-        <v>1985.922750501735</v>
+        <v>1213.907272266229</v>
       </c>
       <c r="Y35" t="n">
-        <v>1595.783418525923</v>
+        <v>823.7679402904175</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>896.1606826434847</v>
+        <v>988.5940627521016</v>
       </c>
       <c r="C36" t="n">
-        <v>721.7076533623577</v>
+        <v>814.1410334709747</v>
       </c>
       <c r="D36" t="n">
-        <v>572.7732437011065</v>
+        <v>665.2066238097234</v>
       </c>
       <c r="E36" t="n">
-        <v>413.535788695651</v>
+        <v>505.9691688042678</v>
       </c>
       <c r="F36" t="n">
-        <v>267.001230722536</v>
+        <v>359.4346108311528</v>
       </c>
       <c r="G36" t="n">
         <v>221.4829690648966</v>
@@ -7013,55 +7013,55 @@
         <v>115.6391071557409</v>
       </c>
       <c r="I36" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J36" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="K36" t="n">
-        <v>372.2531159191418</v>
+        <v>229.777301573245</v>
       </c>
       <c r="L36" t="n">
-        <v>768.0314597909426</v>
+        <v>625.5556454450458</v>
       </c>
       <c r="M36" t="n">
-        <v>1281.865341071162</v>
+        <v>1139.389526725266</v>
       </c>
       <c r="N36" t="n">
-        <v>1825.005889615894</v>
+        <v>1682.530075269998</v>
       </c>
       <c r="O36" t="n">
-        <v>2255.457702164117</v>
+        <v>2112.981887818221</v>
       </c>
       <c r="P36" t="n">
-        <v>2583.930163358809</v>
+        <v>2441.454349012913</v>
       </c>
       <c r="Q36" t="n">
-        <v>2608.331721117847</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="R36" t="n">
-        <v>2555.539927483765</v>
+        <v>2608.331721117848</v>
       </c>
       <c r="S36" t="n">
-        <v>2396.595577506926</v>
+        <v>2449.387371141008</v>
       </c>
       <c r="T36" t="n">
-        <v>2197.549639775284</v>
+        <v>2289.983019883901</v>
       </c>
       <c r="U36" t="n">
-        <v>1969.377283593984</v>
+        <v>2061.810663702601</v>
       </c>
       <c r="V36" t="n">
-        <v>1734.225175362241</v>
+        <v>1826.658555470858</v>
       </c>
       <c r="W36" t="n">
-        <v>1479.98781863404</v>
+        <v>1572.421198742656</v>
       </c>
       <c r="X36" t="n">
-        <v>1272.136318428507</v>
+        <v>1364.569698537123</v>
       </c>
       <c r="Y36" t="n">
-        <v>1064.376019663553</v>
+        <v>1156.80939977217</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="C37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="D37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="E37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="F37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="G37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="H37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="I37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="J37" t="n">
-        <v>52.16663442235694</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="K37" t="n">
         <v>104.5043049285281</v>
@@ -7104,43 +7104,43 @@
         <v>227.004938550107</v>
       </c>
       <c r="M37" t="n">
-        <v>366.5538039423346</v>
+        <v>366.5538039423348</v>
       </c>
       <c r="N37" t="n">
-        <v>508.2191256444388</v>
+        <v>508.2191256444389</v>
       </c>
       <c r="O37" t="n">
-        <v>623.0536839185938</v>
+        <v>623.0536839185939</v>
       </c>
       <c r="P37" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Q37" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="R37" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S37" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T37" t="n">
-        <v>697.7938045762164</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U37" t="n">
-        <v>408.6182951611004</v>
+        <v>408.6182951611005</v>
       </c>
       <c r="V37" t="n">
-        <v>408.6182951611004</v>
+        <v>341.5838044593175</v>
       </c>
       <c r="W37" t="n">
-        <v>119.2011251241398</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="X37" t="n">
-        <v>119.2011251241398</v>
+        <v>52.16663442235696</v>
       </c>
       <c r="Y37" t="n">
-        <v>119.2011251241398</v>
+        <v>52.16663442235696</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>779.3948499695191</v>
+        <v>1339.974077928238</v>
       </c>
       <c r="C38" t="n">
-        <v>410.4323330291074</v>
+        <v>1339.974077928238</v>
       </c>
       <c r="D38" t="n">
-        <v>52.16663442235695</v>
+        <v>981.7083793214872</v>
       </c>
       <c r="E38" t="n">
-        <v>52.16663442235695</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="F38" t="n">
-        <v>52.16663442235695</v>
+        <v>954.6559759239337</v>
       </c>
       <c r="G38" t="n">
-        <v>52.16663442235695</v>
+        <v>536.6145509037151</v>
       </c>
       <c r="H38" t="n">
-        <v>52.16663442235695</v>
+        <v>208.6249366740972</v>
       </c>
       <c r="I38" t="n">
         <v>52.16663442235695</v>
@@ -7198,28 +7198,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R38" t="n">
-        <v>2608.331721117847</v>
+        <v>2548.427427897548</v>
       </c>
       <c r="S38" t="n">
-        <v>2430.385537903851</v>
+        <v>2370.481244683552</v>
       </c>
       <c r="T38" t="n">
-        <v>2211.411102815593</v>
+        <v>2370.481244683552</v>
       </c>
       <c r="U38" t="n">
-        <v>1957.643108100213</v>
+        <v>2116.713249968171</v>
       </c>
       <c r="V38" t="n">
-        <v>1626.580220756642</v>
+        <v>2116.713249968171</v>
       </c>
       <c r="W38" t="n">
-        <v>1273.811565486528</v>
+        <v>2116.713249968171</v>
       </c>
       <c r="X38" t="n">
-        <v>900.3458072254482</v>
+        <v>2116.713249968171</v>
       </c>
       <c r="Y38" t="n">
-        <v>779.3948499695191</v>
+        <v>1726.573917992359</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>896.1606826434852</v>
+        <v>948.9524762775666</v>
       </c>
       <c r="C39" t="n">
-        <v>721.7076533623582</v>
+        <v>774.4994469964396</v>
       </c>
       <c r="D39" t="n">
-        <v>572.7732437011069</v>
+        <v>625.5650373351883</v>
       </c>
       <c r="E39" t="n">
-        <v>413.5357886956514</v>
+        <v>466.3275823297328</v>
       </c>
       <c r="F39" t="n">
-        <v>267.0012307225364</v>
+        <v>319.7930243566178</v>
       </c>
       <c r="G39" t="n">
-        <v>129.0495889562802</v>
+        <v>221.4829690648966</v>
       </c>
       <c r="H39" t="n">
-        <v>52.16663442235695</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I39" t="n">
         <v>52.16663442235695</v>
       </c>
       <c r="J39" t="n">
-        <v>52.16663442235695</v>
+        <v>123.5783229035613</v>
       </c>
       <c r="K39" t="n">
-        <v>300.8414274379376</v>
+        <v>372.2531159191419</v>
       </c>
       <c r="L39" t="n">
-        <v>696.6197713097383</v>
+        <v>768.0314597909427</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.453652589958</v>
+        <v>1281.865341071162</v>
       </c>
       <c r="N39" t="n">
-        <v>1753.59420113469</v>
+        <v>1825.005889615894</v>
       </c>
       <c r="O39" t="n">
-        <v>2184.046013682913</v>
+        <v>2255.457702164118</v>
       </c>
       <c r="P39" t="n">
-        <v>2512.518474877605</v>
+        <v>2583.930163358809</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.331721117847</v>
       </c>
       <c r="R39" t="n">
-        <v>2555.539927483766</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S39" t="n">
-        <v>2396.595577506926</v>
+        <v>2449.387371141008</v>
       </c>
       <c r="T39" t="n">
-        <v>2197.549639775284</v>
+        <v>2250.341433409365</v>
       </c>
       <c r="U39" t="n">
-        <v>1969.377283593984</v>
+        <v>2022.169077228066</v>
       </c>
       <c r="V39" t="n">
-        <v>1734.225175362242</v>
+        <v>1787.016968996323</v>
       </c>
       <c r="W39" t="n">
-        <v>1479.98781863404</v>
+        <v>1532.779612268121</v>
       </c>
       <c r="X39" t="n">
-        <v>1272.136318428507</v>
+        <v>1324.928112062589</v>
       </c>
       <c r="Y39" t="n">
-        <v>1064.376019663553</v>
+        <v>1117.167813297635</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.1028173502639</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="C40" t="n">
-        <v>52.16663442235695</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="D40" t="n">
-        <v>52.16663442235695</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="E40" t="n">
-        <v>52.16663442235695</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="F40" t="n">
-        <v>52.16663442235695</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="G40" t="n">
-        <v>52.16663442235695</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="H40" t="n">
         <v>52.16663442235695</v>
@@ -7356,28 +7356,28 @@
         <v>697.7938045762165</v>
       </c>
       <c r="R40" t="n">
-        <v>697.7938045762165</v>
+        <v>548.0816795676068</v>
       </c>
       <c r="S40" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="T40" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="U40" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="V40" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="W40" t="n">
-        <v>408.3766345392559</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="X40" t="n">
-        <v>221.1028173502639</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.1028173502639</v>
+        <v>379.2591718875153</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1061.20617251458</v>
+        <v>1792.403036022579</v>
       </c>
       <c r="C41" t="n">
-        <v>1061.20617251458</v>
+        <v>1423.440519082168</v>
       </c>
       <c r="D41" t="n">
-        <v>1061.20617251458</v>
+        <v>1423.440519082168</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.20617251458</v>
+        <v>1037.652266483923</v>
       </c>
       <c r="F41" t="n">
-        <v>954.6559759239337</v>
+        <v>626.6663616943158</v>
       </c>
       <c r="G41" t="n">
-        <v>536.6145509037151</v>
+        <v>208.6249366740972</v>
       </c>
       <c r="H41" t="n">
         <v>208.6249366740972</v>
@@ -7438,25 +7438,25 @@
         <v>2608.331721117847</v>
       </c>
       <c r="S41" t="n">
-        <v>2430.385537903851</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="T41" t="n">
-        <v>2211.411102815593</v>
+        <v>2476.234578636264</v>
       </c>
       <c r="U41" t="n">
-        <v>2211.411102815593</v>
+        <v>2476.234578636264</v>
       </c>
       <c r="V41" t="n">
-        <v>2211.411102815593</v>
+        <v>2145.171691292694</v>
       </c>
       <c r="W41" t="n">
-        <v>2211.411102815593</v>
+        <v>1792.403036022579</v>
       </c>
       <c r="X41" t="n">
-        <v>1837.945344554514</v>
+        <v>1792.403036022579</v>
       </c>
       <c r="Y41" t="n">
-        <v>1447.806012578702</v>
+        <v>1792.403036022579</v>
       </c>
     </row>
     <row r="42">
@@ -7502,19 +7502,19 @@
         <v>1281.865341071162</v>
       </c>
       <c r="N42" t="n">
-        <v>1682.530075269997</v>
+        <v>1825.005889615894</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.98188781822</v>
+        <v>2255.457702164118</v>
       </c>
       <c r="P42" t="n">
-        <v>2441.454349012912</v>
+        <v>2583.930163358809</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.331721117847</v>
       </c>
       <c r="R42" t="n">
-        <v>2555.539927483766</v>
+        <v>2608.331721117847</v>
       </c>
       <c r="S42" t="n">
         <v>2489.028957615543</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="C43" t="n">
-        <v>528.8576216483096</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="D43" t="n">
-        <v>528.8576216483096</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="E43" t="n">
-        <v>380.9445280659165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="F43" t="n">
-        <v>380.9445280659165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="G43" t="n">
-        <v>211.9099115267101</v>
+        <v>210.2245553483089</v>
       </c>
       <c r="H43" t="n">
-        <v>53.85199060075817</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="I43" t="n">
         <v>52.16663442235695</v>
@@ -7596,25 +7596,25 @@
         <v>697.7938045762165</v>
       </c>
       <c r="S43" t="n">
-        <v>697.7938045762165</v>
+        <v>482.8986286303607</v>
       </c>
       <c r="T43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="U43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="V43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="W43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="X43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.7938045762165</v>
+        <v>379.2591718875153</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1107.384464199137</v>
+        <v>1625.247915437178</v>
       </c>
       <c r="C44" t="n">
-        <v>738.4219472587254</v>
+        <v>1625.247915437178</v>
       </c>
       <c r="D44" t="n">
-        <v>380.1562486519749</v>
+        <v>1266.982216830427</v>
       </c>
       <c r="E44" t="n">
-        <v>380.1562486519749</v>
+        <v>881.1939642321831</v>
       </c>
       <c r="F44" t="n">
-        <v>380.1562486519749</v>
+        <v>470.2080594425756</v>
       </c>
       <c r="G44" t="n">
-        <v>380.1562486519749</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="H44" t="n">
         <v>52.16663442235695</v>
@@ -7672,28 +7672,28 @@
         <v>2608.331721117847</v>
       </c>
       <c r="R44" t="n">
-        <v>2548.427427897548</v>
+        <v>2561.885077933128</v>
       </c>
       <c r="S44" t="n">
-        <v>2548.427427897548</v>
+        <v>2561.885077933128</v>
       </c>
       <c r="T44" t="n">
-        <v>2329.452992809291</v>
+        <v>2342.91064284487</v>
       </c>
       <c r="U44" t="n">
-        <v>2075.68499809391</v>
+        <v>2342.91064284487</v>
       </c>
       <c r="V44" t="n">
-        <v>1744.622110750339</v>
+        <v>2011.8477555013</v>
       </c>
       <c r="W44" t="n">
-        <v>1744.622110750339</v>
+        <v>2011.8477555013</v>
       </c>
       <c r="X44" t="n">
-        <v>1744.622110750339</v>
+        <v>2011.8477555013</v>
       </c>
       <c r="Y44" t="n">
-        <v>1354.482778774527</v>
+        <v>2011.8477555013</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>129.0495889562802</v>
       </c>
       <c r="H45" t="n">
-        <v>52.16663442235695</v>
+        <v>115.6391071557409</v>
       </c>
       <c r="I45" t="n">
         <v>52.16663442235695</v>
       </c>
       <c r="J45" t="n">
-        <v>123.5783229035613</v>
+        <v>52.16663442235695</v>
       </c>
       <c r="K45" t="n">
-        <v>372.2531159191419</v>
+        <v>229.7773015732446</v>
       </c>
       <c r="L45" t="n">
-        <v>768.0314597909427</v>
+        <v>625.5556454450453</v>
       </c>
       <c r="M45" t="n">
-        <v>1281.865341071162</v>
+        <v>1139.389526725265</v>
       </c>
       <c r="N45" t="n">
         <v>1682.530075269997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>199.0565819202673</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="C46" t="n">
-        <v>199.0565819202673</v>
+        <v>645.6302196634679</v>
       </c>
       <c r="D46" t="n">
-        <v>199.0565819202673</v>
+        <v>495.5135802511321</v>
       </c>
       <c r="E46" t="n">
-        <v>199.0565819202673</v>
+        <v>347.600486668739</v>
       </c>
       <c r="F46" t="n">
-        <v>52.16663442235695</v>
+        <v>347.600486668739</v>
       </c>
       <c r="G46" t="n">
-        <v>52.16663442235695</v>
+        <v>347.600486668739</v>
       </c>
       <c r="H46" t="n">
-        <v>52.16663442235695</v>
+        <v>189.5425657427871</v>
       </c>
       <c r="I46" t="n">
         <v>52.16663442235695</v>
@@ -7830,28 +7830,28 @@
         <v>697.7938045762165</v>
       </c>
       <c r="R46" t="n">
-        <v>548.0816795676068</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="S46" t="n">
-        <v>333.1865036217509</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="T46" t="n">
-        <v>333.1865036217509</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="U46" t="n">
-        <v>333.1865036217509</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="V46" t="n">
-        <v>333.1865036217509</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="W46" t="n">
-        <v>199.0565819202673</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="X46" t="n">
-        <v>199.0565819202673</v>
+        <v>697.7938045762165</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.0565819202673</v>
+        <v>697.7938045762165</v>
       </c>
     </row>
   </sheetData>
@@ -8461,13 +8461,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.69643713343</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
         <v>238.109041496981</v>
@@ -8543,10 +8543,10 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8616,7 +8616,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8625,7 +8625,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>226.9253813177038</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>66.1623237500947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,10 +9017,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577993</v>
       </c>
       <c r="O15" t="n">
-        <v>249.9473552909744</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577993</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.16232375009382</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>335.4274103577982</v>
+        <v>335.4274103577985</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>335.4274103577986</v>
+        <v>335.4274103577991</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>53.95801667252569</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577984</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>138.2953424179764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>53.95801667252569</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>192.6832916947067</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577984</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>53.95801667252569</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>335.4274103577984</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>138.2953424179769</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252567</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>192.6832916947073</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.16232375009429</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>53.95801667252567</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.2953424179773</v>
+        <v>66.16232375009427</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>335.4274103577989</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>66.16232375009427</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>53.95801667252567</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>192.6832916947069</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>335.4274103577989</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>168.2342928975329</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>124.7217777398746</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>91.50904630753064</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.67129830147968</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>62.83774800605009</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>135.5427473392968</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>136.0021720072258</v>
       </c>
       <c r="J13" t="n">
-        <v>47.63685490231597</v>
+        <v>47.63685490231596</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.00898454661009</v>
+        <v>32.00898454661008</v>
       </c>
       <c r="R13" t="n">
         <v>148.2150037585236</v>
@@ -23469,19 +23469,19 @@
         <v>212.7462241863972</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U13" t="n">
         <v>286.2837543209648</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>223.3113552986048</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>107.1335467086399</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>154.8937192292228</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.30525028809627</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.230314768227</v>
+        <v>13.34057366830922</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>28.67129830147968</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>62.83774800605009</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>91.50904630753089</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>136.6442129585066</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05690222816611</v>
       </c>
       <c r="G16" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I16" t="n">
         <v>136.0021720072258</v>
       </c>
       <c r="J16" t="n">
-        <v>47.63685490231597</v>
+        <v>47.63685490231596</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.00898454661009</v>
+        <v>32.00898454661008</v>
       </c>
       <c r="R16" t="n">
         <v>148.2150037585236</v>
@@ -23709,19 +23709,19 @@
         <v>225.1823783120738</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2837543209648</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I17" t="n">
         <v>154.8937192292228</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.30525028809627</v>
+        <v>59.30525028809626</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>27.55156249083191</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>290.5533593416019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>28.67129830147968</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.83774800605009</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.26387569774037</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>39.24517060979051</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.9469704015952</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>136.0021720072258</v>
       </c>
       <c r="J19" t="n">
-        <v>47.63685490231597</v>
+        <v>47.63685490231596</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.00898454661009</v>
+        <v>32.00898454661008</v>
       </c>
       <c r="R19" t="n">
-        <v>137.6717178197886</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S19" t="n">
         <v>212.7462241863972</v>
@@ -23971,22 +23971,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>220.7029580110686</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.8610107700165</v>
       </c>
       <c r="H20" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>154.8937192292228</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.30525028809629</v>
+        <v>59.30525028809625</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>7.916067237852019</v>
       </c>
       <c r="T20" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>91.50904630753021</v>
       </c>
       <c r="H21" t="n">
-        <v>28.671298301481</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9076781202692</v>
+        <v>156.4773417166924</v>
       </c>
       <c r="I22" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J22" t="n">
-        <v>47.63685490231597</v>
+        <v>47.63685490231595</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.00898454661009</v>
+        <v>32.00898454661007</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T22" t="n">
         <v>225.1823783120738</v>
@@ -24186,7 +24186,7 @@
         <v>286.2837543209648</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>108.2605499105959</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>306.3285194581289</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>324.7097180873218</v>
       </c>
       <c r="I23" t="n">
         <v>154.8937192292228</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T23" t="n">
         <v>216.7846907373749</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>235.3450138125612</v>
       </c>
     </row>
     <row r="24">
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>39.24517060978985</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>91.5090463075307</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.2402552144371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>82.11195570975862</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2837543209648</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>235.3450138125617</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.1525282782736</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I26" t="n">
         <v>154.8937192292228</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>59.30525028809629</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>176.1667213818563</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U26" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>28.671298301481</v>
+        <v>28.67129830148055</v>
       </c>
       <c r="I27" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>17.95552621927511</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3442703738144</v>
@@ -24621,7 +24621,7 @@
         <v>156.4773417166924</v>
       </c>
       <c r="I28" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J28" t="n">
         <v>47.63685490231597</v>
@@ -24651,7 +24651,7 @@
         <v>148.2150037585236</v>
       </c>
       <c r="S28" t="n">
-        <v>212.7462241863972</v>
+        <v>85.2807023827411</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>356.2383924976066</v>
+        <v>220.2969547547756</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>154.8937192292228</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U29" t="n">
         <v>251.230314768227</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>28.67129830148055</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>62.83774800605011</v>
+        <v>62.8377480060501</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>28.67129830148053</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>95.68445227046293</v>
       </c>
       <c r="G31" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H31" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J31" t="n">
         <v>47.63685490231597</v>
@@ -24891,16 +24891,16 @@
         <v>212.7462241863972</v>
       </c>
       <c r="T31" t="n">
-        <v>124.4328775045457</v>
+        <v>225.1823783120738</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2837543209648</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>319.7522716278955</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>324.7097180873218</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>154.8937192292228</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>59.30525028809629</v>
+        <v>59.30525028809627</v>
       </c>
       <c r="S32" t="n">
         <v>176.1667213818563</v>
       </c>
       <c r="T32" t="n">
-        <v>216.7846907373749</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.230314768227</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>148.7924350728868</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>91.50904630753064</v>
       </c>
       <c r="H33" t="n">
-        <v>28.67129830148055</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>62.83774800605011</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>156.4773417166924</v>
       </c>
       <c r="I34" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J34" t="n">
         <v>47.63685490231597</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>61.42017278343513</v>
+        <v>91.64640862540205</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>56.85176370234802</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I35" t="n">
         <v>154.8937192292228</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.230314768227</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>185.3127502147893</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>91.50904630753067</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>39.24517060978962</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.4678343871722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>156.4773417166924</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0021720072259</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J37" t="n">
         <v>47.63685490231597</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>185.7734975290628</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>355.1484907086839</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>324.7097180873217</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>154.8937192292228</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>59.30525028809627</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.7846907373749</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>266.4964909726838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>39.24517060978968</v>
       </c>
       <c r="H39" t="n">
-        <v>28.67129830148012</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3442703738144</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>136.0021720072258</v>
@@ -25596,10 +25596,10 @@
         <v>32.00898454661009</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2150037585236</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.7462241863972</v>
+        <v>45.6119415831067</v>
       </c>
       <c r="T40" t="n">
         <v>225.1823783120738</v>
@@ -25611,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>40.30857637193503</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>301.3913511169715</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>59.30525028809627</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>176.1667213818563</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>86.00851968060775</v>
       </c>
       <c r="U41" t="n">
         <v>251.230314768227</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>52.26387569774037</v>
       </c>
       <c r="S42" t="n">
-        <v>91.50904630753043</v>
+        <v>39.24517060978985</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.3336693906086</v>
+        <v>136.0021720072258</v>
       </c>
       <c r="J43" t="n">
         <v>47.63685490231597</v>
@@ -25836,10 +25836,10 @@
         <v>148.2150037585236</v>
       </c>
       <c r="S43" t="n">
-        <v>212.7462241863972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.1823783120738</v>
+        <v>122.5793161366568</v>
       </c>
       <c r="U43" t="n">
         <v>286.2837543209648</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.1065102338444</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.8610107700165</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.7097180873217</v>
       </c>
       <c r="I44" t="n">
         <v>154.8937192292228</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.32307353522397</v>
       </c>
       <c r="S44" t="n">
         <v>176.1667213818563</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.230314768227</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>28.67129830148012</v>
+        <v>91.50904630753023</v>
       </c>
       <c r="I45" t="n">
-        <v>62.8377480060501</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>115.6048720350067</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3442703738144</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4773417166924</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>136.0021720072258</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>47.63685490231597</v>
@@ -26070,10 +26070,10 @@
         <v>32.00898454661009</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2150037585236</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.7462241863972</v>
       </c>
       <c r="T46" t="n">
         <v>225.1823783120738</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.7343758521222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662967.6434991722</v>
+        <v>662967.6434991723</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662967.6434991722</v>
+        <v>662967.6434991723</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662967.6434991719</v>
+        <v>662967.6434991721</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662967.6434991719</v>
+        <v>662967.6434991723</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662967.6434991721</v>
+        <v>662967.6434991724</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>614457.2540377789</v>
+        <v>614457.2540377787</v>
       </c>
       <c r="D2" t="n">
-        <v>615278.2538993392</v>
+        <v>615278.253899339</v>
       </c>
       <c r="E2" t="n">
+        <v>424362.0490714346</v>
+      </c>
+      <c r="F2" t="n">
         <v>424362.0490714347</v>
       </c>
-      <c r="F2" t="n">
-        <v>424362.0490714345</v>
-      </c>
       <c r="G2" t="n">
+        <v>424362.0490714348</v>
+      </c>
+      <c r="H2" t="n">
         <v>424362.0490714347</v>
       </c>
-      <c r="H2" t="n">
-        <v>424362.0490714345</v>
-      </c>
       <c r="I2" t="n">
-        <v>424362.0490714345</v>
+        <v>424362.0490714346</v>
       </c>
       <c r="J2" t="n">
-        <v>424362.0490714345</v>
+        <v>424362.0490714346</v>
       </c>
       <c r="K2" t="n">
-        <v>424362.0490714344</v>
+        <v>424362.0490714346</v>
       </c>
       <c r="L2" t="n">
-        <v>424362.0490714345</v>
+        <v>424362.0490714347</v>
       </c>
       <c r="M2" t="n">
-        <v>424362.0490714344</v>
+        <v>424362.0490714347</v>
       </c>
       <c r="N2" t="n">
-        <v>424362.0490714345</v>
+        <v>424362.0490714347</v>
       </c>
       <c r="O2" t="n">
         <v>424362.0490714345</v>
@@ -26374,10 +26374,10 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>480768.6197333723</v>
+        <v>480768.6197333724</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.261091817170383e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>1740.265292815489</v>
       </c>
       <c r="M3" t="n">
-        <v>160788.1364543455</v>
+        <v>160788.1364543456</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>97647.55866553298</v>
       </c>
       <c r="F4" t="n">
-        <v>97647.55866553297</v>
+        <v>97647.558665533</v>
       </c>
       <c r="G4" t="n">
-        <v>97647.55866553297</v>
+        <v>97647.558665533</v>
       </c>
       <c r="H4" t="n">
         <v>97647.55866553298</v>
@@ -26441,25 +26441,25 @@
         <v>97647.55866553298</v>
       </c>
       <c r="J4" t="n">
-        <v>97647.55866553295</v>
+        <v>97647.55866553298</v>
       </c>
       <c r="K4" t="n">
-        <v>97647.55866553297</v>
+        <v>97647.55866553298</v>
       </c>
       <c r="L4" t="n">
-        <v>97647.55866553297</v>
+        <v>97647.55866553298</v>
       </c>
       <c r="M4" t="n">
-        <v>97647.55866553297</v>
+        <v>97647.558665533</v>
       </c>
       <c r="N4" t="n">
         <v>97647.55866553297</v>
       </c>
       <c r="O4" t="n">
-        <v>97647.558665533</v>
+        <v>97647.55866553298</v>
       </c>
       <c r="P4" t="n">
-        <v>97647.55866553298</v>
+        <v>97647.55866553297</v>
       </c>
     </row>
     <row r="5">
@@ -26478,22 +26478,22 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
+        <v>47464.76586808293</v>
+      </c>
+      <c r="F5" t="n">
+        <v>47464.76586808293</v>
+      </c>
+      <c r="G5" t="n">
+        <v>47464.76586808293</v>
+      </c>
+      <c r="H5" t="n">
+        <v>47464.76586808292</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47464.76586808292</v>
+      </c>
+      <c r="J5" t="n">
         <v>47464.76586808291</v>
-      </c>
-      <c r="F5" t="n">
-        <v>47464.76586808291</v>
-      </c>
-      <c r="G5" t="n">
-        <v>47464.76586808291</v>
-      </c>
-      <c r="H5" t="n">
-        <v>47464.7658680829</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47464.76586808291</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47464.7658680829</v>
       </c>
       <c r="K5" t="n">
         <v>47464.76586808291</v>
@@ -26502,7 +26502,7 @@
         <v>47464.76586808291</v>
       </c>
       <c r="M5" t="n">
-        <v>47464.76586808291</v>
+        <v>47464.76586808293</v>
       </c>
       <c r="N5" t="n">
         <v>47464.76586808292</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176763.8601992834</v>
+        <v>176803.5824000963</v>
       </c>
       <c r="C6" t="n">
-        <v>176763.8601992836</v>
+        <v>176803.5824000963</v>
       </c>
       <c r="D6" t="n">
-        <v>175558.0338484994</v>
+        <v>175573.1260534654</v>
       </c>
       <c r="E6" t="n">
-        <v>-207899.5378064461</v>
+        <v>-202156.959456643</v>
       </c>
       <c r="F6" t="n">
-        <v>272869.081926926</v>
+        <v>278611.6602767294</v>
       </c>
       <c r="G6" t="n">
-        <v>272869.0819269262</v>
+        <v>278611.6602767296</v>
       </c>
       <c r="H6" t="n">
-        <v>272869.0819269261</v>
+        <v>278611.6602767295</v>
       </c>
       <c r="I6" t="n">
-        <v>272869.081926926</v>
+        <v>278611.6602767294</v>
       </c>
       <c r="J6" t="n">
-        <v>272869.0819269261</v>
+        <v>278611.6602767294</v>
       </c>
       <c r="K6" t="n">
-        <v>272869.0819269259</v>
+        <v>278611.6602767294</v>
       </c>
       <c r="L6" t="n">
-        <v>271128.8166341105</v>
+        <v>276871.394983914</v>
       </c>
       <c r="M6" t="n">
-        <v>112080.9454725804</v>
+        <v>117823.5238223839</v>
       </c>
       <c r="N6" t="n">
-        <v>272869.081926926</v>
+        <v>278611.6602767296</v>
       </c>
       <c r="O6" t="n">
-        <v>272869.081926926</v>
+        <v>278611.6602767293</v>
       </c>
       <c r="P6" t="n">
-        <v>272869.081926926</v>
+        <v>278611.6602767293</v>
       </c>
     </row>
   </sheetData>
@@ -26746,31 +26746,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6295278482404</v>
+        <v>358.6295278482405</v>
       </c>
       <c r="F3" t="n">
-        <v>358.6295278482404</v>
+        <v>358.6295278482405</v>
       </c>
       <c r="G3" t="n">
-        <v>358.6295278482404</v>
+        <v>358.6295278482405</v>
       </c>
       <c r="H3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482405</v>
       </c>
       <c r="I3" t="n">
         <v>358.6295278482403</v>
       </c>
       <c r="J3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="K3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="L3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="M3" t="n">
-        <v>358.6295278482403</v>
+        <v>358.6295278482404</v>
       </c>
       <c r="N3" t="n">
         <v>358.6295278482404</v>
@@ -26798,22 +26798,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
+        <v>652.0829302794619</v>
+      </c>
+      <c r="F4" t="n">
+        <v>652.0829302794619</v>
+      </c>
+      <c r="G4" t="n">
+        <v>652.0829302794619</v>
+      </c>
+      <c r="H4" t="n">
+        <v>652.0829302794618</v>
+      </c>
+      <c r="I4" t="n">
+        <v>652.0829302794618</v>
+      </c>
+      <c r="J4" t="n">
         <v>652.0829302794617</v>
-      </c>
-      <c r="F4" t="n">
-        <v>652.0829302794617</v>
-      </c>
-      <c r="G4" t="n">
-        <v>652.0829302794617</v>
-      </c>
-      <c r="H4" t="n">
-        <v>652.0829302794616</v>
-      </c>
-      <c r="I4" t="n">
-        <v>652.0829302794617</v>
-      </c>
-      <c r="J4" t="n">
-        <v>652.0829302794616</v>
       </c>
       <c r="K4" t="n">
         <v>652.0829302794617</v>
@@ -26822,7 +26822,7 @@
         <v>652.0829302794617</v>
       </c>
       <c r="M4" t="n">
-        <v>652.0829302794617</v>
+        <v>652.0829302794619</v>
       </c>
       <c r="N4" t="n">
         <v>652.0829302794618</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>358.6295278482404</v>
+        <v>358.6295278482405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.39075054832453e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>645.2068845377503</v>
+        <v>645.2068845377505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>645.2068845377503</v>
+        <v>645.2068845377505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>645.2068845377503</v>
+        <v>645.2068845377505</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>106.9256144734549</v>
       </c>
       <c r="I9" t="n">
-        <v>84.0868030883735</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,19 +28025,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>152.1154945730653</v>
       </c>
       <c r="J10" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>173.9584110229766</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.441726745118553</v>
+        <v>1.441726745118554</v>
       </c>
       <c r="H11" t="n">
         <v>14.76508402844539</v>
       </c>
       <c r="I11" t="n">
-        <v>55.58217034118308</v>
+        <v>55.58217034118309</v>
       </c>
       <c r="J11" t="n">
         <v>122.3647553335059</v>
@@ -31776,25 +31776,25 @@
         <v>257.2509074483665</v>
       </c>
       <c r="O11" t="n">
-        <v>242.9147371265938</v>
+        <v>242.9147371265939</v>
       </c>
       <c r="P11" t="n">
-        <v>207.3221081064795</v>
+        <v>207.3221081064796</v>
       </c>
       <c r="Q11" t="n">
         <v>155.6902690469213</v>
       </c>
       <c r="R11" t="n">
-        <v>90.56386765305341</v>
+        <v>90.56386765305342</v>
       </c>
       <c r="S11" t="n">
-        <v>32.85334820438906</v>
+        <v>32.85334820438907</v>
       </c>
       <c r="T11" t="n">
-        <v>6.31115882675647</v>
+        <v>6.311158826756471</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1153381396094842</v>
+        <v>0.1153381396094843</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7713918146169699</v>
+        <v>0.77139181461697</v>
       </c>
       <c r="H12" t="n">
-        <v>7.450020946432316</v>
+        <v>7.450020946432318</v>
       </c>
       <c r="I12" t="n">
         <v>26.55888484536498</v>
       </c>
       <c r="J12" t="n">
-        <v>72.87960999414102</v>
+        <v>72.87960999414103</v>
       </c>
       <c r="K12" t="n">
         <v>124.562861573478</v>
@@ -31855,25 +31855,25 @@
         <v>200.6261544516303</v>
       </c>
       <c r="O12" t="n">
-        <v>183.5337358224858</v>
+        <v>183.5337358224859</v>
       </c>
       <c r="P12" t="n">
         <v>147.302003617516</v>
       </c>
       <c r="Q12" t="n">
-        <v>98.46748847636971</v>
+        <v>98.46748847636974</v>
       </c>
       <c r="R12" t="n">
         <v>47.89395845490277</v>
       </c>
       <c r="S12" t="n">
-        <v>14.32826462676695</v>
+        <v>14.32826462676696</v>
       </c>
       <c r="T12" t="n">
-        <v>3.109250340495592</v>
+        <v>3.109250340495593</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05074946148795857</v>
+        <v>0.05074946148795858</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6467089846443679</v>
+        <v>0.646708984644368</v>
       </c>
       <c r="H13" t="n">
-        <v>5.749830790747202</v>
+        <v>5.749830790747203</v>
       </c>
       <c r="I13" t="n">
         <v>19.44830292003245</v>
@@ -31922,31 +31922,31 @@
         <v>45.72232521435681</v>
       </c>
       <c r="K13" t="n">
-        <v>75.13582567050018</v>
+        <v>75.1358256705002</v>
       </c>
       <c r="L13" t="n">
-        <v>96.14798849885449</v>
+        <v>96.1479884988545</v>
       </c>
       <c r="M13" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N13" t="n">
-        <v>98.96411216835138</v>
+        <v>98.96411216835139</v>
       </c>
       <c r="O13" t="n">
-        <v>91.40937539318759</v>
+        <v>91.4093753931876</v>
       </c>
       <c r="P13" t="n">
-        <v>78.21651210644242</v>
+        <v>78.21651210644244</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.1530587050843</v>
+        <v>54.15305870508431</v>
       </c>
       <c r="R13" t="n">
-        <v>29.07838761864584</v>
+        <v>29.07838761864585</v>
       </c>
       <c r="S13" t="n">
-        <v>11.27037385057502</v>
+        <v>11.27037385057503</v>
       </c>
       <c r="T13" t="n">
         <v>2.763211116207753</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.441726745118553</v>
+        <v>1.441726745118554</v>
       </c>
       <c r="H14" t="n">
         <v>14.76508402844539</v>
       </c>
       <c r="I14" t="n">
-        <v>55.58217034118308</v>
+        <v>55.58217034118309</v>
       </c>
       <c r="J14" t="n">
         <v>122.3647553335059</v>
@@ -32013,25 +32013,25 @@
         <v>257.2509074483665</v>
       </c>
       <c r="O14" t="n">
-        <v>242.9147371265938</v>
+        <v>242.9147371265939</v>
       </c>
       <c r="P14" t="n">
-        <v>207.3221081064795</v>
+        <v>207.3221081064796</v>
       </c>
       <c r="Q14" t="n">
         <v>155.6902690469213</v>
       </c>
       <c r="R14" t="n">
-        <v>90.56386765305341</v>
+        <v>90.56386765305342</v>
       </c>
       <c r="S14" t="n">
-        <v>32.85334820438906</v>
+        <v>32.85334820438907</v>
       </c>
       <c r="T14" t="n">
-        <v>6.31115882675647</v>
+        <v>6.311158826756471</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1153381396094842</v>
+        <v>0.1153381396094843</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7713918146169699</v>
+        <v>0.77139181461697</v>
       </c>
       <c r="H15" t="n">
-        <v>7.450020946432316</v>
+        <v>7.450020946432318</v>
       </c>
       <c r="I15" t="n">
         <v>26.55888484536498</v>
       </c>
       <c r="J15" t="n">
-        <v>72.87960999414102</v>
+        <v>72.87960999414103</v>
       </c>
       <c r="K15" t="n">
         <v>124.562861573478</v>
@@ -32092,25 +32092,25 @@
         <v>200.6261544516303</v>
       </c>
       <c r="O15" t="n">
-        <v>183.5337358224858</v>
+        <v>183.5337358224859</v>
       </c>
       <c r="P15" t="n">
         <v>147.302003617516</v>
       </c>
       <c r="Q15" t="n">
-        <v>98.46748847636971</v>
+        <v>98.46748847636974</v>
       </c>
       <c r="R15" t="n">
         <v>47.89395845490277</v>
       </c>
       <c r="S15" t="n">
-        <v>14.32826462676695</v>
+        <v>14.32826462676696</v>
       </c>
       <c r="T15" t="n">
-        <v>3.109250340495592</v>
+        <v>3.109250340495593</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05074946148795857</v>
+        <v>0.05074946148795858</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6467089846443679</v>
+        <v>0.646708984644368</v>
       </c>
       <c r="H16" t="n">
-        <v>5.749830790747202</v>
+        <v>5.749830790747203</v>
       </c>
       <c r="I16" t="n">
         <v>19.44830292003245</v>
@@ -32159,31 +32159,31 @@
         <v>45.72232521435681</v>
       </c>
       <c r="K16" t="n">
-        <v>75.13582567050018</v>
+        <v>75.1358256705002</v>
       </c>
       <c r="L16" t="n">
-        <v>96.14798849885449</v>
+        <v>96.1479884988545</v>
       </c>
       <c r="M16" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N16" t="n">
-        <v>98.96411216835138</v>
+        <v>98.96411216835139</v>
       </c>
       <c r="O16" t="n">
-        <v>91.40937539318759</v>
+        <v>91.4093753931876</v>
       </c>
       <c r="P16" t="n">
-        <v>78.21651210644242</v>
+        <v>78.21651210644244</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.1530587050843</v>
+        <v>54.15305870508431</v>
       </c>
       <c r="R16" t="n">
-        <v>29.07838761864584</v>
+        <v>29.07838761864585</v>
       </c>
       <c r="S16" t="n">
-        <v>11.27037385057502</v>
+        <v>11.27037385057503</v>
       </c>
       <c r="T16" t="n">
         <v>2.763211116207753</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.441726745118553</v>
+        <v>1.441726745118554</v>
       </c>
       <c r="H17" t="n">
         <v>14.76508402844539</v>
       </c>
       <c r="I17" t="n">
-        <v>55.58217034118308</v>
+        <v>55.58217034118309</v>
       </c>
       <c r="J17" t="n">
         <v>122.3647553335059</v>
@@ -32250,25 +32250,25 @@
         <v>257.2509074483665</v>
       </c>
       <c r="O17" t="n">
-        <v>242.9147371265938</v>
+        <v>242.9147371265939</v>
       </c>
       <c r="P17" t="n">
-        <v>207.3221081064795</v>
+        <v>207.3221081064796</v>
       </c>
       <c r="Q17" t="n">
         <v>155.6902690469213</v>
       </c>
       <c r="R17" t="n">
-        <v>90.56386765305341</v>
+        <v>90.56386765305342</v>
       </c>
       <c r="S17" t="n">
-        <v>32.85334820438906</v>
+        <v>32.85334820438907</v>
       </c>
       <c r="T17" t="n">
-        <v>6.31115882675647</v>
+        <v>6.311158826756471</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1153381396094842</v>
+        <v>0.1153381396094843</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7713918146169699</v>
+        <v>0.77139181461697</v>
       </c>
       <c r="H18" t="n">
-        <v>7.450020946432316</v>
+        <v>7.450020946432318</v>
       </c>
       <c r="I18" t="n">
         <v>26.55888484536498</v>
       </c>
       <c r="J18" t="n">
-        <v>72.87960999414102</v>
+        <v>72.87960999414103</v>
       </c>
       <c r="K18" t="n">
         <v>124.562861573478</v>
@@ -32329,25 +32329,25 @@
         <v>200.6261544516303</v>
       </c>
       <c r="O18" t="n">
-        <v>183.5337358224858</v>
+        <v>183.5337358224859</v>
       </c>
       <c r="P18" t="n">
         <v>147.302003617516</v>
       </c>
       <c r="Q18" t="n">
-        <v>98.46748847636971</v>
+        <v>98.46748847636974</v>
       </c>
       <c r="R18" t="n">
         <v>47.89395845490277</v>
       </c>
       <c r="S18" t="n">
-        <v>14.32826462676695</v>
+        <v>14.32826462676696</v>
       </c>
       <c r="T18" t="n">
-        <v>3.109250340495592</v>
+        <v>3.109250340495593</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05074946148795857</v>
+        <v>0.05074946148795858</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6467089846443679</v>
+        <v>0.646708984644368</v>
       </c>
       <c r="H19" t="n">
-        <v>5.749830790747202</v>
+        <v>5.749830790747203</v>
       </c>
       <c r="I19" t="n">
         <v>19.44830292003245</v>
@@ -32396,31 +32396,31 @@
         <v>45.72232521435681</v>
       </c>
       <c r="K19" t="n">
-        <v>75.13582567050018</v>
+        <v>75.1358256705002</v>
       </c>
       <c r="L19" t="n">
-        <v>96.14798849885449</v>
+        <v>96.1479884988545</v>
       </c>
       <c r="M19" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N19" t="n">
-        <v>98.96411216835138</v>
+        <v>98.96411216835139</v>
       </c>
       <c r="O19" t="n">
-        <v>91.40937539318759</v>
+        <v>91.4093753931876</v>
       </c>
       <c r="P19" t="n">
-        <v>78.21651210644242</v>
+        <v>78.21651210644244</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.1530587050843</v>
+        <v>54.15305870508431</v>
       </c>
       <c r="R19" t="n">
-        <v>29.07838761864584</v>
+        <v>29.07838761864585</v>
       </c>
       <c r="S19" t="n">
-        <v>11.27037385057502</v>
+        <v>11.27037385057503</v>
       </c>
       <c r="T19" t="n">
         <v>2.763211116207753</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.441726745118553</v>
+        <v>1.441726745118554</v>
       </c>
       <c r="H20" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I20" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118309</v>
       </c>
       <c r="J20" t="n">
-        <v>122.3647553335059</v>
+        <v>122.364755333506</v>
       </c>
       <c r="K20" t="n">
-        <v>183.3930484543743</v>
+        <v>183.3930484543744</v>
       </c>
       <c r="L20" t="n">
-        <v>227.5152933302963</v>
+        <v>227.5152933302964</v>
       </c>
       <c r="M20" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N20" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O20" t="n">
-        <v>242.9147371265938</v>
+        <v>242.9147371265939</v>
       </c>
       <c r="P20" t="n">
-        <v>207.3221081064795</v>
+        <v>207.3221081064796</v>
       </c>
       <c r="Q20" t="n">
         <v>155.6902690469213</v>
       </c>
       <c r="R20" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305344</v>
       </c>
       <c r="S20" t="n">
-        <v>32.85334820438906</v>
+        <v>32.85334820438908</v>
       </c>
       <c r="T20" t="n">
-        <v>6.311158826756469</v>
+        <v>6.311158826756472</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1153381396094842</v>
+        <v>0.1153381396094843</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169702</v>
       </c>
       <c r="H21" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432319</v>
       </c>
       <c r="I21" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536499</v>
       </c>
       <c r="J21" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414103</v>
       </c>
       <c r="K21" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L21" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M21" t="n">
-        <v>195.453092677291</v>
+        <v>195.4530926772911</v>
       </c>
       <c r="N21" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O21" t="n">
-        <v>183.5337358224858</v>
+        <v>183.5337358224859</v>
       </c>
       <c r="P21" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q21" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636975</v>
       </c>
       <c r="R21" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490278</v>
       </c>
       <c r="S21" t="n">
-        <v>14.32826462676695</v>
+        <v>14.32826462676696</v>
       </c>
       <c r="T21" t="n">
-        <v>3.109250340495592</v>
+        <v>3.109250340495593</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795859</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443681</v>
       </c>
       <c r="H22" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747204</v>
       </c>
       <c r="I22" t="n">
-        <v>19.44830292003245</v>
+        <v>19.44830292003246</v>
       </c>
       <c r="J22" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435682</v>
       </c>
       <c r="K22" t="n">
-        <v>75.13582567050017</v>
+        <v>75.1358256705002</v>
       </c>
       <c r="L22" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885452</v>
       </c>
       <c r="M22" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N22" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835141</v>
       </c>
       <c r="O22" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318762</v>
       </c>
       <c r="P22" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644245</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.15305870508429</v>
+        <v>54.15305870508431</v>
       </c>
       <c r="R22" t="n">
-        <v>29.07838761864584</v>
+        <v>29.07838761864585</v>
       </c>
       <c r="S22" t="n">
-        <v>11.27037385057502</v>
+        <v>11.27037385057503</v>
       </c>
       <c r="T22" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207754</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03527503552605647</v>
+        <v>0.03527503552605648</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H26" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I26" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J26" t="n">
         <v>122.3647553335059</v>
@@ -32955,10 +32955,10 @@
         <v>227.5152933302963</v>
       </c>
       <c r="M26" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N26" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O26" t="n">
         <v>242.9147371265938</v>
@@ -32970,13 +32970,13 @@
         <v>155.6902690469213</v>
       </c>
       <c r="R26" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S26" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T26" t="n">
-        <v>6.311158826756469</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U26" t="n">
         <v>0.1153381396094842</v>
@@ -33016,40 +33016,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H27" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I27" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J27" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K27" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L27" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M27" t="n">
         <v>195.453092677291</v>
       </c>
       <c r="N27" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O27" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P27" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q27" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R27" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S27" t="n">
         <v>14.32826462676695</v>
@@ -33058,7 +33058,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H28" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I28" t="n">
         <v>19.44830292003245</v>
       </c>
       <c r="J28" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K28" t="n">
-        <v>75.13582567050017</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L28" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M28" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N28" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O28" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P28" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q28" t="n">
-        <v>54.15305870508429</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R28" t="n">
         <v>29.07838761864584</v>
@@ -33134,7 +33134,7 @@
         <v>11.27037385057502</v>
       </c>
       <c r="T28" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U28" t="n">
         <v>0.03527503552605647</v>
@@ -33177,10 +33177,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H29" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I29" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J29" t="n">
         <v>122.3647553335059</v>
@@ -33192,10 +33192,10 @@
         <v>227.5152933302963</v>
       </c>
       <c r="M29" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N29" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O29" t="n">
         <v>242.9147371265938</v>
@@ -33207,13 +33207,13 @@
         <v>155.6902690469213</v>
       </c>
       <c r="R29" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S29" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T29" t="n">
-        <v>6.311158826756469</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U29" t="n">
         <v>0.1153381396094842</v>
@@ -33253,40 +33253,40 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H30" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I30" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J30" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K30" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L30" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M30" t="n">
         <v>195.453092677291</v>
       </c>
       <c r="N30" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O30" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P30" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R30" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S30" t="n">
         <v>14.32826462676695</v>
@@ -33295,7 +33295,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H31" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I31" t="n">
         <v>19.44830292003245</v>
       </c>
       <c r="J31" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K31" t="n">
-        <v>75.13582567050017</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L31" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M31" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N31" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O31" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P31" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q31" t="n">
-        <v>54.15305870508429</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R31" t="n">
         <v>29.07838761864584</v>
@@ -33371,7 +33371,7 @@
         <v>11.27037385057502</v>
       </c>
       <c r="T31" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U31" t="n">
         <v>0.03527503552605647</v>
@@ -33414,10 +33414,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H32" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I32" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J32" t="n">
         <v>122.3647553335059</v>
@@ -33429,10 +33429,10 @@
         <v>227.5152933302963</v>
       </c>
       <c r="M32" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N32" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O32" t="n">
         <v>242.9147371265938</v>
@@ -33444,13 +33444,13 @@
         <v>155.6902690469213</v>
       </c>
       <c r="R32" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S32" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T32" t="n">
-        <v>6.311158826756469</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U32" t="n">
         <v>0.1153381396094842</v>
@@ -33490,40 +33490,40 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H33" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I33" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J33" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K33" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L33" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M33" t="n">
         <v>195.453092677291</v>
       </c>
       <c r="N33" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O33" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P33" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q33" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R33" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S33" t="n">
         <v>14.32826462676695</v>
@@ -33532,7 +33532,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H34" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I34" t="n">
         <v>19.44830292003245</v>
       </c>
       <c r="J34" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K34" t="n">
-        <v>75.13582567050017</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L34" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M34" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N34" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O34" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P34" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q34" t="n">
-        <v>54.15305870508429</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R34" t="n">
         <v>29.07838761864584</v>
@@ -33608,7 +33608,7 @@
         <v>11.27037385057502</v>
       </c>
       <c r="T34" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U34" t="n">
         <v>0.03527503552605647</v>
@@ -33651,10 +33651,10 @@
         <v>1.441726745118553</v>
       </c>
       <c r="H35" t="n">
-        <v>14.76508402844538</v>
+        <v>14.76508402844539</v>
       </c>
       <c r="I35" t="n">
-        <v>55.58217034118307</v>
+        <v>55.58217034118308</v>
       </c>
       <c r="J35" t="n">
         <v>122.3647553335059</v>
@@ -33666,10 +33666,10 @@
         <v>227.5152933302963</v>
       </c>
       <c r="M35" t="n">
-        <v>253.1546013337983</v>
+        <v>253.1546013337984</v>
       </c>
       <c r="N35" t="n">
-        <v>257.2509074483664</v>
+        <v>257.2509074483665</v>
       </c>
       <c r="O35" t="n">
         <v>242.9147371265938</v>
@@ -33681,13 +33681,13 @@
         <v>155.6902690469213</v>
       </c>
       <c r="R35" t="n">
-        <v>90.56386765305339</v>
+        <v>90.56386765305341</v>
       </c>
       <c r="S35" t="n">
         <v>32.85334820438906</v>
       </c>
       <c r="T35" t="n">
-        <v>6.311158826756469</v>
+        <v>6.31115882675647</v>
       </c>
       <c r="U35" t="n">
         <v>0.1153381396094842</v>
@@ -33727,40 +33727,40 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7713918146169698</v>
+        <v>0.7713918146169699</v>
       </c>
       <c r="H36" t="n">
-        <v>7.450020946432315</v>
+        <v>7.450020946432316</v>
       </c>
       <c r="I36" t="n">
-        <v>26.55888484536497</v>
+        <v>26.55888484536498</v>
       </c>
       <c r="J36" t="n">
-        <v>72.87960999414101</v>
+        <v>72.87960999414102</v>
       </c>
       <c r="K36" t="n">
         <v>124.562861573478</v>
       </c>
       <c r="L36" t="n">
-        <v>167.4901393974258</v>
+        <v>167.4901393974259</v>
       </c>
       <c r="M36" t="n">
         <v>195.453092677291</v>
       </c>
       <c r="N36" t="n">
-        <v>200.6261544516302</v>
+        <v>200.6261544516303</v>
       </c>
       <c r="O36" t="n">
         <v>183.5337358224858</v>
       </c>
       <c r="P36" t="n">
-        <v>147.3020036175159</v>
+        <v>147.302003617516</v>
       </c>
       <c r="Q36" t="n">
-        <v>98.4674884763697</v>
+        <v>98.46748847636971</v>
       </c>
       <c r="R36" t="n">
-        <v>47.89395845490276</v>
+        <v>47.89395845490277</v>
       </c>
       <c r="S36" t="n">
         <v>14.32826462676695</v>
@@ -33769,7 +33769,7 @@
         <v>3.109250340495592</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05074946148795856</v>
+        <v>0.05074946148795857</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6467089846443678</v>
+        <v>0.6467089846443679</v>
       </c>
       <c r="H37" t="n">
-        <v>5.749830790747201</v>
+        <v>5.749830790747202</v>
       </c>
       <c r="I37" t="n">
         <v>19.44830292003245</v>
       </c>
       <c r="J37" t="n">
-        <v>45.7223252143568</v>
+        <v>45.72232521435681</v>
       </c>
       <c r="K37" t="n">
-        <v>75.13582567050017</v>
+        <v>75.13582567050018</v>
       </c>
       <c r="L37" t="n">
-        <v>96.14798849885447</v>
+        <v>96.14798849885449</v>
       </c>
       <c r="M37" t="n">
         <v>101.3745729292985</v>
       </c>
       <c r="N37" t="n">
-        <v>98.96411216835136</v>
+        <v>98.96411216835138</v>
       </c>
       <c r="O37" t="n">
-        <v>91.40937539318757</v>
+        <v>91.40937539318759</v>
       </c>
       <c r="P37" t="n">
-        <v>78.21651210644241</v>
+        <v>78.21651210644242</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.15305870508429</v>
+        <v>54.1530587050843</v>
       </c>
       <c r="R37" t="n">
         <v>29.07838761864584</v>
@@ -33845,7 +33845,7 @@
         <v>11.27037385057502</v>
       </c>
       <c r="T37" t="n">
-        <v>2.763211116207752</v>
+        <v>2.763211116207753</v>
       </c>
       <c r="U37" t="n">
         <v>0.03527503552605647</v>
@@ -35181,13 +35181,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
         <v>6.876045741711437</v>
@@ -35263,10 +35263,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35345,7 +35345,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K11" t="n">
-        <v>287.4486099805585</v>
+        <v>287.4486099805586</v>
       </c>
       <c r="L11" t="n">
         <v>409.4100929107595</v>
       </c>
       <c r="M11" t="n">
-        <v>472.3219015993581</v>
+        <v>472.3219015993582</v>
       </c>
       <c r="N11" t="n">
         <v>465.1847682637597</v>
@@ -35427,7 +35427,7 @@
         <v>393.6167069676525</v>
       </c>
       <c r="P11" t="n">
-        <v>297.8878205226926</v>
+        <v>297.8878205226927</v>
       </c>
       <c r="Q11" t="n">
         <v>145.6995698323765</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>72.13301866788316</v>
+        <v>72.13301866788318</v>
       </c>
       <c r="K12" t="n">
         <v>251.1866596116976</v>
       </c>
       <c r="L12" t="n">
-        <v>255.8611409352555</v>
+        <v>399.7761049210109</v>
       </c>
       <c r="M12" t="n">
         <v>519.0241225052725</v>
@@ -35509,7 +35509,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5630021261973</v>
+        <v>24.64803814044292</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>52.86633384461733</v>
+        <v>52.86633384461734</v>
       </c>
       <c r="L13" t="n">
         <v>123.7380137591706</v>
@@ -35585,7 +35585,7 @@
         <v>115.9945033072273</v>
       </c>
       <c r="P13" t="n">
-        <v>75.49507137133591</v>
+        <v>75.49507137133592</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K14" t="n">
-        <v>287.4486099805585</v>
+        <v>287.4486099805586</v>
       </c>
       <c r="L14" t="n">
         <v>409.4100929107595</v>
       </c>
       <c r="M14" t="n">
-        <v>472.3219015993581</v>
+        <v>472.3219015993582</v>
       </c>
       <c r="N14" t="n">
         <v>465.1847682637597</v>
@@ -35664,7 +35664,7 @@
         <v>393.6167069676525</v>
       </c>
       <c r="P14" t="n">
-        <v>297.8878205226926</v>
+        <v>297.8878205226927</v>
       </c>
       <c r="Q14" t="n">
         <v>145.6995698323765</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>72.13301866788316</v>
+        <v>72.13301866788318</v>
       </c>
       <c r="K15" t="n">
         <v>251.1866596116976</v>
@@ -35737,10 +35737,10 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N15" t="n">
-        <v>548.6268167118506</v>
+        <v>404.7118527260963</v>
       </c>
       <c r="O15" t="n">
-        <v>290.8848466690158</v>
+        <v>434.7998106547709</v>
       </c>
       <c r="P15" t="n">
         <v>331.7903648431229</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>52.86633384461733</v>
+        <v>52.86633384461734</v>
       </c>
       <c r="L16" t="n">
         <v>123.7380137591706</v>
@@ -35822,7 +35822,7 @@
         <v>115.9945033072273</v>
       </c>
       <c r="P16" t="n">
-        <v>75.49507137133591</v>
+        <v>75.49507137133592</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K17" t="n">
-        <v>287.4486099805585</v>
+        <v>287.4486099805586</v>
       </c>
       <c r="L17" t="n">
         <v>409.4100929107595</v>
       </c>
       <c r="M17" t="n">
-        <v>472.3219015993581</v>
+        <v>472.3219015993582</v>
       </c>
       <c r="N17" t="n">
         <v>465.1847682637597</v>
@@ -35901,7 +35901,7 @@
         <v>393.6167069676525</v>
       </c>
       <c r="P17" t="n">
-        <v>297.8878205226926</v>
+        <v>297.8878205226927</v>
       </c>
       <c r="Q17" t="n">
         <v>145.6995698323765</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>72.13301866788316</v>
+        <v>72.13301866788318</v>
       </c>
       <c r="K18" t="n">
         <v>251.1866596116976</v>
@@ -35974,7 +35974,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N18" t="n">
-        <v>548.6268167118506</v>
+        <v>404.7118527260963</v>
       </c>
       <c r="O18" t="n">
         <v>434.7998106547709</v>
@@ -35983,7 +35983,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.64803814044201</v>
+        <v>168.5630021261973</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>52.86633384461733</v>
+        <v>52.86633384461734</v>
       </c>
       <c r="L19" t="n">
         <v>123.7380137591706</v>
@@ -36059,7 +36059,7 @@
         <v>115.9945033072273</v>
       </c>
       <c r="P19" t="n">
-        <v>75.49507137133591</v>
+        <v>75.49507137133592</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>110.4154659788934</v>
+        <v>110.4154659788935</v>
       </c>
       <c r="K20" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805586</v>
       </c>
       <c r="L20" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M20" t="n">
-        <v>472.3219015993581</v>
+        <v>472.3219015993582</v>
       </c>
       <c r="N20" t="n">
-        <v>465.1847682637597</v>
+        <v>465.1847682637598</v>
       </c>
       <c r="O20" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P20" t="n">
-        <v>297.8878205226926</v>
+        <v>297.8878205226927</v>
       </c>
       <c r="Q20" t="n">
         <v>145.6995698323765</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>72.13301866788315</v>
+        <v>72.13301866788318</v>
       </c>
       <c r="K21" t="n">
         <v>251.1866596116976</v>
@@ -36208,13 +36208,13 @@
         <v>399.7761049210109</v>
       </c>
       <c r="M21" t="n">
-        <v>519.0241225052725</v>
+        <v>519.0241225052727</v>
       </c>
       <c r="N21" t="n">
-        <v>404.7118527260951</v>
+        <v>404.7118527260956</v>
       </c>
       <c r="O21" t="n">
-        <v>434.7998106547709</v>
+        <v>434.799810654771</v>
       </c>
       <c r="P21" t="n">
         <v>331.7903648431229</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461734</v>
       </c>
       <c r="L22" t="n">
-        <v>123.7380137591706</v>
+        <v>123.7380137591707</v>
       </c>
       <c r="M22" t="n">
         <v>140.9584498911391</v>
@@ -36293,10 +36293,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O22" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P22" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133594</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N24" t="n">
-        <v>404.7118527260956</v>
+        <v>404.711852726096</v>
       </c>
       <c r="O24" t="n">
         <v>434.7998106547709</v>
@@ -36597,10 +36597,10 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K26" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L26" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M26" t="n">
         <v>472.3219015993581</v>
@@ -36609,7 +36609,7 @@
         <v>465.1847682637597</v>
       </c>
       <c r="O26" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P26" t="n">
         <v>297.8878205226926</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K27" t="n">
         <v>251.1866596116976</v>
@@ -36685,7 +36685,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N27" t="n">
-        <v>548.6268167118504</v>
+        <v>404.7118527260953</v>
       </c>
       <c r="O27" t="n">
         <v>434.7998106547709</v>
@@ -36694,7 +36694,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.78105680832462</v>
+        <v>168.5630021261973</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L28" t="n">
         <v>123.7380137591706</v>
@@ -36767,10 +36767,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O28" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P28" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,10 +36834,10 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K29" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L29" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M29" t="n">
         <v>472.3219015993581</v>
@@ -36846,7 +36846,7 @@
         <v>465.1847682637597</v>
       </c>
       <c r="O29" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P29" t="n">
         <v>297.8878205226926</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K30" t="n">
-        <v>179.4047142938257</v>
+        <v>251.1866596116976</v>
       </c>
       <c r="L30" t="n">
         <v>399.7761049210109</v>
@@ -36922,7 +36922,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N30" t="n">
-        <v>548.6268167118504</v>
+        <v>404.7118527260953</v>
       </c>
       <c r="O30" t="n">
         <v>434.7998106547709</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L31" t="n">
         <v>123.7380137591706</v>
@@ -37004,10 +37004,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O31" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P31" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K32" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L32" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M32" t="n">
         <v>472.3219015993581</v>
@@ -37083,7 +37083,7 @@
         <v>465.1847682637597</v>
       </c>
       <c r="O32" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P32" t="n">
         <v>297.8878205226926</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K33" t="n">
         <v>251.1866596116976</v>
@@ -37159,7 +37159,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N33" t="n">
-        <v>548.6268167118504</v>
+        <v>404.7118527260953</v>
       </c>
       <c r="O33" t="n">
         <v>434.7998106547709</v>
@@ -37168,7 +37168,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.78105680832508</v>
+        <v>168.5630021261973</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L34" t="n">
         <v>123.7380137591706</v>
@@ -37241,10 +37241,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O34" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P34" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>110.4154659788934</v>
       </c>
       <c r="K35" t="n">
-        <v>287.4486099805584</v>
+        <v>287.4486099805585</v>
       </c>
       <c r="L35" t="n">
-        <v>409.4100929107594</v>
+        <v>409.4100929107595</v>
       </c>
       <c r="M35" t="n">
         <v>472.3219015993581</v>
@@ -37320,7 +37320,7 @@
         <v>465.1847682637597</v>
       </c>
       <c r="O35" t="n">
-        <v>393.6167069676524</v>
+        <v>393.6167069676525</v>
       </c>
       <c r="P35" t="n">
         <v>297.8878205226926</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>72.13301866788315</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>251.1866596116976</v>
+        <v>179.4047142938263</v>
       </c>
       <c r="L36" t="n">
         <v>399.7761049210109</v>
@@ -37396,7 +37396,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N36" t="n">
-        <v>548.6268167118504</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O36" t="n">
         <v>434.7998106547709</v>
@@ -37405,7 +37405,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.64803814044247</v>
+        <v>168.5630021261973</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>52.86633384461732</v>
+        <v>52.86633384461733</v>
       </c>
       <c r="L37" t="n">
         <v>123.7380137591706</v>
@@ -37478,10 +37478,10 @@
         <v>143.09628454758</v>
       </c>
       <c r="O37" t="n">
-        <v>115.9945033072272</v>
+        <v>115.9945033072273</v>
       </c>
       <c r="P37" t="n">
-        <v>75.4950713713359</v>
+        <v>75.49507137133591</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>72.13301866788316</v>
       </c>
       <c r="K39" t="n">
         <v>251.1866596116976</v>
@@ -37642,7 +37642,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.78105680832553</v>
+        <v>24.64803814044247</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N42" t="n">
-        <v>404.7118527260958</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O42" t="n">
         <v>434.7998106547709</v>
@@ -37879,7 +37879,7 @@
         <v>331.7903648431229</v>
       </c>
       <c r="Q42" t="n">
-        <v>168.5630021261973</v>
+        <v>24.64803814044247</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>72.13301866788316</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>251.1866596116976</v>
+        <v>179.4047142938259</v>
       </c>
       <c r="L45" t="n">
         <v>399.7761049210109</v>
@@ -38107,7 +38107,7 @@
         <v>519.0241225052725</v>
       </c>
       <c r="N45" t="n">
-        <v>404.7118527260958</v>
+        <v>548.6268167118506</v>
       </c>
       <c r="O45" t="n">
         <v>434.7998106547709</v>
